--- a/out.xlsx
+++ b/out.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,1526 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-44m2-mzn2041119058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                419 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=419000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 437 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;44,40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 5/7
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Białołęka
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Gotowe mieszkanie do zamieszkania lub inwestycje
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mieszkanie dwupokojowe na cele inwestycyjne lub mieszkaniowe dobrze skomunikowane z centrum.&lt;/p&gt;&lt;p&gt;Główne atuty nieruchomości: • bliskość komunikacji miejskiej• cicha i spokojna okolica• w pełni wykończony lokal &lt;/p&gt;&lt;p&gt;Nieruchomość złożona z: • pokój dzienny 21 m.kw• pokój 9,5 m.kw• aneks kuchenny 5,29 m.kw• łazienka 4,5 m.kw• hall 4,11 m.kw&lt;/p&gt;&lt;p&gt;W skład nieruchomości wchodzą też:&lt;/p&gt;&lt;p&gt;• loggia&lt;/p&gt;&lt;p&gt;• garaż&lt;/p&gt;&lt;p&gt;Typ ogrzewania: ogrzewanie na gaz płynny. &lt;/p&gt;&lt;p&gt;Typ własności: własność. &lt;/p&gt;&lt;p&gt;Na inwestycję lub cele mieszkaniowe lokal o powierzchni 44,4 m2. &lt;/p&gt;&lt;p&gt;Funkcjonalne dwupokojowe mieszkanie gotowe do wprowadzenia się od zaraz. &lt;/p&gt;&lt;p&gt;Nieruchomość składa się z dwóch pokojów, aneksu kuchennego, łazienki, holu oraz loggi. &lt;/p&gt;&lt;p&gt;Na podłogach w obu pokojach ułożono parkiet. &lt;/p&gt;&lt;p&gt;Do mieszkania przynależy miejsce postojowe w garażu wielopoziomowym usytuowanym na terenie osiedla, dodatkowo płatne 15 000 zł. &lt;/p&gt;&lt;p&gt;Blisko komunikacji miejskiej, przy osiedlu znajduje się przystanek autobusowy (511, 211, 233). Do przystanku tramwajowego nr 2, 17 szybki dojazd autobusem 211. &lt;/p&gt;&lt;p&gt;W pobliżu znajduje się pełna infrastruktura handlowo usługowa: Biedronka, DH Tarchomin, Selgros, Lidl. Dla rodzin z dziećmi ważna będzie &lt;/p&gt;&lt;p&gt;bliskość szkół oraz przedszkoli.&lt;/p&gt;&lt;p&gt;Ustawne mieszkanie dwupokojowe na osiedlu na Tarchominie w bloku z 2002 roku.  &lt;/p&gt;&lt;p&gt;Dojazd w ciągu 20 minut do metra Młociny (pętla 511 przy osiedlu) lub tramwajem nr 2, 17. &lt;/p&gt;&lt;p&gt;W pobliżu sklepy spożywcze DH Tarch. Biedronka, Selgros, Kaufland, Lidl.&lt;/p&gt;&lt;p&gt;Miejsce postojowe w garażu wielopoziomowym.&lt;/p&gt;&lt;p&gt;Oferta dostępna tylko w Metrohouse. &lt;/p&gt;&lt;p&gt;Więcej zdjęć i plan powierzchni na /DARU982&lt;/p&gt;&lt;p&gt;ZADZWOŃ&lt;span class="replacePhone"&gt;:&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        606
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;. Czekamy na telefon od Ciebie. &lt;p&gt;&lt;/p&gt;&lt;p&gt;---&lt;/p&gt;&lt;p&gt;Zakup lub najem nieruchomości przez Agencję Metrohouse to:• największy wybór na rynku• elastyczne podejście do Klienta• bezpieczeństwo transakcji• możliwość skorzystania z szerokiej oferty kredytów gotówkowych i hipotecznych• doświadczeni doradcy&lt;/p&gt;&lt;p&gt;Czy wiesz, że możemy przygotować dla Ciebie prezentację on-line nieruchomości? Skontaktuj się z naszym Agentem i zapytaj o szczegóły.&lt;/p&gt;&lt;p&gt;Pomimo, iż Doradcy Metrohouse przykładają szczególną staranność do rzetelnego prezentowania informacji o nieruchomości, nie zawsze jest możliwa weryfikacja wszystkich danych przekazanych od osób trzecich. Niniejsza prezentacja oferty nie jest ofertą w rozumieniu Kodeksu Cywilnego i ma charakter wyłącznie informacyjny.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Normalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;44,40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;260 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;5/7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Aneks kuchenny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Rama H&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2003&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Ogrzewanie na gaz płynny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;14.10.2022&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-DARU982&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;958&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-ursus-herbu-oksza-39m2-mzn2042192153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                460 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=460000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 567 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,77 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 7/8
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Ursus,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Szamoty,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Herbu Oksza
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        39,77 m2 - 2 pok + garaż oddanie w I kwartale 2024
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Z uwagi na dużą ilość zapytań mailowych zachęcam do kontaktu telefonicznego.&lt;/p&gt;&lt;p&gt;39,77 m2 - 2 pok + garaż - zakończenie budowy w marcu 2024&lt;/p&gt;&lt;p&gt;Sprzedaż na podstawie cesji umowy&lt;/p&gt;&lt;p&gt;Deweloper Robyg - "Mój Ursus"&lt;/p&gt;&lt;p&gt;Ursus ul. Herbu Oksza etap 5&lt;/p&gt;&lt;p&gt;Atuty:&lt;/p&gt;&lt;p&gt;- atrakcyjna cena i harmonogram wpłat (niższa niż u dewelopera)&lt;/p&gt;&lt;p&gt;- bdb lokalizacja&lt;/p&gt;&lt;p&gt;- funkcjonalny rozkład i wysoka kondygnacja&lt;/p&gt;&lt;p&gt;- zadaszona loggia &lt;/p&gt;&lt;p&gt;- miejsce parkingowe w garażu podziemnym&lt;/p&gt;&lt;p&gt;7 z 8 pięter&lt;/p&gt;&lt;p&gt;Salon z aneksem kuchennym - 18,13 m2 &lt;/p&gt;&lt;p&gt;Sypialnia - 12,65 m2&lt;/p&gt;&lt;p&gt;Łazienka - 4,45 m2&lt;/p&gt;&lt;p&gt;hol - 4,54 m2&lt;/p&gt;&lt;p&gt;loggia - 4,96 m2&lt;/p&gt;&lt;p&gt;Do mieszkania przynależy:&lt;/p&gt;&lt;p&gt;- miejsce postojowe w garażu podziemnym na poziomie -2 w cenie 35 000 PLN &lt;/p&gt;&lt;p&gt;Deweloper:&lt;/p&gt;&lt;p&gt;Robyg jest jednym z największych i najbardziej cenionych deweloperów w kraju, który od 20 lat realizuje projekty w największych miastach Polski. Projekty, które zrealizował cechuje wysoka jakość i niepowtarzalny design. Na swoje realizacje udziela 5 letniej rękojmi!!!&lt;/p&gt;&lt;p&gt;O Inwestycji&lt;/p&gt;&lt;p&gt;Inwestycja ROBYG Mój Ursus, przy ul. Posag 7 Panien, zlokalizowana jest w dobrze skomunikowanej okolicy w modernizowanej dzielnicy Warszawy - Ursusie. W ramach projektu powstanie łącznie około 2000 nowych mieszkań na sprzedaż o zróżnicowanych metrażach przeznaczonych zarówno dla singli, jak i rodzin z dziećmi. Do zamieszkania zachęcają liczne tereny zielone idealne do spacerów i rekreacji oraz doskonała komunikacja z innymi częściami Warszawy.&lt;/p&gt;&lt;p&gt;Największym atutem oferowanych na sprzedaż mieszkań w inwestycji Mój Ursus jest wysoki, najlepszy w okolicy standard. Budynki będą posiadały indywidualnie wykończone, eleganckie lobby wejściowe, zaś przestrzenie zewnętrzne wypełnią starannie zaprojektowane tereny zielone wraz z małą architekturą, oświetleniem i placami zabaw dla dzieci.&lt;/p&gt;&lt;p&gt;ROBYG w cenie mieszkania zapewnia Smart House, czyli technologię inteligentnego domu. Smart House ułatwia codzienne życie dzięki zdalnej kontroli nad urządzeniami domowymi. Technologia ta pozwala mieszkać w nowoczesnym stylu – za pomocą aplikacji mobilnej i połączenia z Internetem można sterować pracą m.in. oświetlenia, temperatury itp.&lt;/p&gt;&lt;p&gt;Zapraszam do kontaktu&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie nie stanowi oferty w rozumieniu Kodeksu Cywilnego, lecz ma charakter informacyjny.&lt;/p&gt;&lt;p&gt;Przedstawione wizualizacje i grafiki mają charakter wyłącznie poglądowy i stanowią wyłącznie materiał pomocniczy, ułatwiający zorientowanie się w ogólnym wyglądzie oferowanej nieruchomości.&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie wraz z jego elementami jest własnością  Północ Nieruchomości Sp z o.o.  lub podmiotu współpracującego. Wszelkie prawa zastrzeżone. Kopiowanie, rozpowszechnianie oraz korzystanie z niniejszych materiałów w jakikolwiek inny sposób wykraczający poza dozwolony użytek określony przepisami ustawy z 4 lutego 1994 r. o prawie autorskim i prawach pokrewnych (Dz. U. 1994, nr 24 poz. 83 z późn. zm.) bez pisemnej zgody Północ Nieruchomości Sp z o.o. lub podmiotów współpracujących jest zabronione i może stanowić podstawę odpowiedzialności cywilnej oraz karnej.&lt;/p&gt;&lt;p&gt;Niniejsze materiały stanowią tajemnicę przedsiębiorstwa PÓŁNOC NIERUCHOMOŚCI Sp. z o.o.  w rozumieniu ustawy z dnia 16 kwietnia 1993 r. o zwalczaniu nieuczciwej konkurencji (Dz. U. z 2003 r., Nr 153, poz. 1503 z późn. zm.).&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO WYKOŃCZENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,77 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;270 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;7/8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;ANEKS KUCHENNY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;APARTAMENTOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2024&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-115114/3877/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;41&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-39m2-mzn2042180270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                449 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=449000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 310 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,70 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 1/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Warszawa
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Sprzedam 2 pokojowe m 39,7m2 1p, ul. Czerniakowska
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Na Sprzedaż dwu pokojowe mieszkanie położone w Warszawie przy ul. Czerniakowskiej w okolicy ulicy Chełmskiej. &lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni 39,70 m2 usytuowane jest na 1 piętrze w 10 piętrowym bloku, niezależne wejścia z przedpokoju do kuchni i pokoi, okna wychodzą na podwórko i park osiedlowy, lokal jest do generalnego remontu z wyjątkiem okien (okna PCF) do lokalu przynależna jest również piwnica, mieszkanie posiada Księgą Wieczystą. &lt;/p&gt;&lt;p&gt;Blok ocieplony wybudowany w latach 70, płyta. Dużym atutem mieszkania jest super lokalizacji w bardzo bliskiej okolicy znajdują się punkty handlowe, sklepy, supermarket, jak również instytucje publiczne, szkoły podstawowe, żłobki, przedszkola, przychodnie lekarskie, restauracje, kawiarnie, przystanki autobusowe.&lt;/p&gt;&lt;p&gt;W bliskiej odległości znajdują się ogródki działkowe. &lt;/p&gt;&lt;p&gt;Czynsz ok. 700 złotych miesięcznie z zaliczką na wodę zimną, ciepłą, wywozem nieczystości i funduszem remontowym . &lt;/p&gt;&lt;p&gt;Cena 449.000 złotych do neg. &lt;/p&gt;&lt;p&gt;Polecam,&lt;/p&gt;&lt;p&gt;Kostrzewa Grażyna&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        501
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Treść niniejszego ogłoszenia nie stanowi oferty handlowej w rozumieniu Kodeksu Cywilnego.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu IMO dla biur nieruchomości&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Do remontu kapitalnego&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,70 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Widna&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;łazienka razem z WC&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stolarka okienna&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;PCV&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Hipoteczne&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wielka płyta&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1970&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;04.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-119&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;121&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-wawer-wal-miedzeszynski-52m2-mzn2041893947</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                440 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=440000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            8 462 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;52 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 4/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Wawer,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Wał Miedzeszyński
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Opis nieruchomości
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Przytulne mieszkanko 52m2 dla singla lub pary&lt;/p&gt;&lt;p&gt;Na sprzedaż przytulne mieszkanie na poddaszu (skosy) na 4 ostatnim piętrze o powierzchni 52m2 z widokiem na nadwiślańską zieleń i z dobrym dojazdem do Warszawy:&lt;/p&gt;&lt;p&gt;- przedpokój z pakowną szafą&lt;/p&gt;&lt;p&gt;- salon (narożnik, stół-biurko, oświetlenie halogenowe w suficie) połączony z jadalnią (stół z krzesłami) i aneksem kuchennym (meble w zabudowie: kuchenka indukcyjna, lodówko-zamrażarka, zmywarka, barek, zlewozmywak, okap)&lt;/p&gt;&lt;p&gt;- łazienka (prysznic, umywalka, WC, grzejnik drabinkowy, pralka)&lt;/p&gt;&lt;p&gt;- osobna, przestronna sypialnia (duże podwójne łóżko, szafa)&lt;/p&gt;&lt;p&gt;Mieszkanie ciepłe i przytulne, wszystkie okna skierowane na zachód. Ogrzewanie i ciepła woda z pieca gazowego (wspólna kotłownia). Możliwość parkowania auta na wolnym miejscu na terenie osiedla. Osiedle strzeżone i monitorowane. Nieruchomość sprawnie zarządzana przez wspólnotę mieszkaniową. W najbliższym czasie będzie możliwość zakupienia piwnicy. &lt;/p&gt;&lt;p&gt;Miesięczny czynsz przy jednej mieszkającej osobie wynosi 450zł wraz z zaliczkami na media, rozliczanymi co pół roku. Dodatkowo płatny prąd, internet.&lt;/p&gt;&lt;p&gt;Nieruchomość zlokalizowana w świetnym miejscu. Tylko kilka minut jazdy autem do południowej obwodnicy a stamtąd tylko kilkanaście minut do Warszawy. W bliskiej okolicy sklep spożywczo przemysłowy, paczkomat, markety, kościół, przystanek autobusowy, stacja paliw. Kilka minut spacerem do nadwiślańskiej plaży, gdzie odbywają się koncerty, imprezy. &lt;/p&gt;&lt;p&gt;Mieszkanie sprzedawane wraz ze wszystkimi meblami widocznymi na zdjęciach.&lt;/p&gt;&lt;p&gt;Własność, KW, jeden właściciel.&lt;/p&gt;&lt;p&gt;Cena 440.000zł&lt;/p&gt;&lt;p&gt;Serdecznie polecam i zapraszam do kontaktu oraz wspólnego obejrzenia nieruchomości.&lt;/p&gt;&lt;p&gt;Kontakt:&lt;/p&gt;&lt;p&gt;Anna Bogusz&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        503
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;a.bogusz@citihome.,pl&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WYSOKI STANDARD&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;52 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;240 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;ANEKS KUCHENNY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;NISKI BLOK&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;CEGŁA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2003&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.04.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;15.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-10061/1969/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;617&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-odkryta-43m2-mzn2041504322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                445 990 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=445990.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 300 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;43,30 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 2/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Odkryta
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Widne 2 pok 43,3 m2 z widokiem na wał wiślany
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;
+&lt;p&gt;Wygodne dwupokojowe mieszkanie o powierzchni 43,3 m2 usytuowane na 2 piętrze 4 piętrowego bloku z 1999 roku.  Spokojne osiedle składające się z kilku bloków w sąsiedztwie wału wiślanego z dużą ilością nieprzypisanych miejsc postojowych. &lt;/p&gt;
+&lt;p&gt;Mieszkanie składa się z:&lt;/p&gt;
+&lt;p&gt;- pokoju dziennego 17,5 m2&lt;/p&gt;
+&lt;p&gt;- sypialni 7,8 m2&lt;/p&gt;
+&lt;p&gt;- oddzielnej widnej kuchni 6,6 m2&lt;/p&gt;
+&lt;p&gt;- łazienki z wanną 3,5 m2&lt;/p&gt;
+&lt;p&gt;- osobnego WC 1,5 m2&lt;/p&gt;
+&lt;p&gt;- przedpokoju 6,4 m2&lt;/p&gt;
+&lt;p&gt;- balkonu ok 4 m2&lt;/p&gt;
+&lt;p&gt;Standard&lt;/p&gt;
+&lt;p&gt;Mieszkanie do odświeżenia i aranżacji wg własnych potrzeb, ale możliwe wejście od zaraz. Kuchnia z szafkami i niezbędnym sprzętem AGD otwarta na pokój dzienny. Łazienka z wanną i umywalką oraz osobne WC. Na podłodze mozaika dębowa oraz terakota. Okna drewniane w dobrym stanie z wystawą od południowego zachodu. Z salonu wyjście na balkon ok. 4 m2. W budynku nowa cicha winda. Osiedle bardzo zadbane, ogrodzone, chronione i monitorowane.&lt;/p&gt;
+&lt;p&gt;Okolica/ Infrastruktura&lt;/p&gt;
+&lt;p&gt;Bardzo dobry punkt komunikacyjny, przy wyjeździe z osiedla przystanki autobusowe (linie 516, 518, N13), przystanek tramwajowy (linia 2) w odległości 500m. W najbliższej okolicy pełna infrastruktura miejska: sklepy, szkoły, przedszkola, żłobki, restauracje, bary, kawiarnie, dwie galerie handlowe Galeria Pod Dębami oraz Galeria Północna. Z osiedla bezpośrednie wyjście na wał wiślany, wokół pełno zieleni. Ścieżki rowerowe i szlaki piesze. Idealne miejsce na wypoczynek.&lt;/p&gt;
+&lt;p&gt;Polecam i zapraszam na prezentację !&lt;/p&gt;
+&lt;p&gt;Tadeusz Jędrysiak&lt;/p&gt;
+&lt;p&gt;&lt;span class='"replacePhone"'&gt;&lt;span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        798
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;
+&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;
+&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO ODŚWIEŻENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;43,30 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Z OKNEM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;BLOK&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;CEGŁA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1999&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. GAZOWE,C.O. WŁASNE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;19.01.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;20.01.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-1129/12083/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-odkryta-43m2-mzn2042224048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                460 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=460000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 575 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;43,50 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 1/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka Nowodwory,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Odkryta
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Do wejścia ciche na zamkniętym, chronionym osiedlu
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Z wielką przyjemnością prezentuję ci ciche i widne mieszkanie na chronionym osiedlu w dobrze skomunikowanym punkcie.&lt;/p&gt;&lt;p&gt;Co musisz wiedzieć o tej nieruchomości:&lt;/p&gt;&lt;p&gt;Na piętrze znajduje się pomieszczenie w rodzaju komórki lokatorskiej połączonej z rowerownią, dostęp tylko dla mieszkańców danego piętra&lt;/p&gt;&lt;p&gt;Czynsz wynosi około 650,- zł&lt;/p&gt;&lt;p&gt;Do mieszkania przynależą dwa miejsca naziemne usytuowane obok siebie po 15 000 zł za jedno (30 000 zł łącznie) i jest to płatność obligatoryjna&lt;/p&gt;&lt;p&gt;Pełna własność z księgą wieczystą- możliwy kredyt&lt;/p&gt;&lt;p&gt;Co musisz wiedzieć o najbliższej okolicy:&lt;/p&gt;&lt;p&gt;Żabka&lt;/p&gt;&lt;p&gt;Liczne punkty usługowe&lt;/p&gt;&lt;p&gt;7 min samochodem do Galeria Północna&lt;/p&gt;&lt;p&gt;12 min samochodem sklep Auchan&lt;/p&gt;&lt;p&gt;7 min pieszo-linie tramwajowe (nr 2,17 )&lt;/p&gt;&lt;p&gt;2 min pieszo Przystanek Autobusowy Nowodwory 02 ( nr 186,211,509,518)&lt;/p&gt;&lt;p&gt;Park Ireny Jarockiej, Park Strumykowa, Park Leśny.&lt;/p&gt;&lt;p&gt;Gorąco zapraszam do kontaktu i obejrzenia wszystkich zainteresowanych. Pomimo ładnych zdjęć, dopóki sam nie zobaczysz mieszkania od środka nie dostrzeżesz jego całego potencjału. Na część pytań chętnie odpowiem telefonicznie a po więcej informacji i wrażeń zapraszam do mieszkania.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;43,50 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2000&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-N+596132&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-krasiczynska-46m2-mzn2041770106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                449 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=449000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 677 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;46,40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek Bródno,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Krasiczyńska
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Dwa pokoje z kuchnią - 200m Metro Kondratowicza
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;W pigułce: Dwupokojowe mieszkanie z oddzielną widną kuchnią 180 metrów od II linii metra (Metro Kondratowicza). Stan: do remontu lub odświeżenia/odmalowania.&lt;/p&gt;&lt;p&gt;Prezentowane mieszkanie ma powierzchnię 46 m², na która składa się:&lt;/p&gt;&lt;p&gt;- salon (20 m²) z dużą szafą,&lt;/p&gt;&lt;p&gt;- przestronna sypialnia (11 m²),&lt;/p&gt;&lt;p&gt;- oddzielna widna kuchnia (6 m²),&lt;/p&gt;&lt;p&gt;- przedpokój (5 m²), &lt;/p&gt;&lt;p&gt;- łazienka (4 m²) z wanną. &lt;/p&gt;&lt;p&gt;Okna w całym mieszkaniu wychodzą na zachód co sprawia, że w lokalu jest widno przez zdecydowaną większość dnia. &lt;/p&gt;&lt;p&gt;Mieszkanie jest wyposażone w duże pakowne szafy polskiej marki "Komandor". &lt;/p&gt;&lt;p&gt;Nie ma na nim żadnych obciążeń. Opłaty administracyjne wynoszą ok. 500 zł. &lt;/p&gt;&lt;p&gt;Budynek z 1974 roku wyposażony jest w dwie windy. W 2023 roku zaplanowana jest ich wymiana na nowe jak i kompleksowa wymiana instalacji elektrycznej na klatkach schodowych budynku. &lt;/p&gt;&lt;p&gt;W mieszkaniu Istnieje możliwość wydzielenia 3. pokoju poprzez aranżację aneksu kuchennego w część salonu. &lt;/p&gt;&lt;p&gt;Do lokalu przynależy piwnica o powierzchni 3m².&lt;/p&gt;&lt;p&gt;Forma właśności to Spółdzielczo własnościowe prawo do lokalu bez KW. Grunty pod budynkiem są uregulowane. Oznacza to, że nowi właściciele będą mieli możliwość założenia księgi wieczystej. &lt;/p&gt;&lt;p&gt;Jednym z największych atutów mieszkania jest jego lokalizacja. Budynek znajduje się zaledwie 180 metrów od stacji II linii metra (Metro Kondratowicza) skąd dojedziemy do centrum Warszawy w niespełna 20 minut. W tym samym miejscu znajduje się również przystanek autobusowy z licznymi połączeniami do innych części Warszawy. &lt;/p&gt;&lt;p&gt;Lokal jest przedostatnim lokalem na piętrze. Wejścia do obu (tego i sąsiedniego) mieszkań są oddzielone od reszty korytarza stalowymi drzwiami. Zapewnia to dodatkową zamykaną przestrzeń na klatce (3m²), którą można wykorzystać do przechowywania rowerów czy wózka dla dzieci. Przestrzeń ta została wydzielona za zgodą spółdzielni a czynsz za użytkowanie jest wliczony w opłaty administracyjne. &lt;/p&gt;&lt;p&gt;W najbliższej okolicy budynku znajdują się liczne punkty usługowe, handlowe, gastronomiczne oraz szkoła i przedszkole. &lt;/p&gt;&lt;p&gt;Fani spędzania czasu na świeżym powietrzu docenią bliskość zarówno parku jak i lasu bródnowskiego. &lt;/p&gt;&lt;p&gt;Zapraszam na prezentacje.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;46,40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-03-08&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wielka płyta&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1975&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;13.03.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-RN313957&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;646&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-skarbka-z-gor-40m2-mzn2042197879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                444 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=444000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 990 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;40,40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/2
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Skarbka z Gór
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Okazja ! 2 pokojowe mieszkanie z komórką
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Witam !&lt;/p&gt;&lt;p&gt;Mam przyjemność zaprezentować Państwu 2-Pokojowe mieszkanie, znajdujące się w sąsiedztwie zieleni na zamkniętym osiedlu przy ul. Skarbka z Gór - Warszawa - Białołęka.&lt;/p&gt;&lt;p&gt;Mieszkanie zostało zaprojektowane z myślą o wygodzie z funkcjonalnym wykorzystaniem przestrzeni. Bezpośrednie wyjście z salonu na balkon oraz widok na tereny zielone, a także miejsce rekreacji (w tym kameralny plac zabaw) czyni je jeszcze bardziej komfortowym. &lt;/p&gt;&lt;p&gt;W mieszkaniu została zagospodarowana każda przestrzeń, tak aby umożliwiała codzienne funkcjonowanie. W przedpokoju dostępne są szafy w zabudowie, w łazience i sypialni szafki zostały umieszczone we wnęce (tak aby nie ograniczać przestrzeni), natomiast w kuchni zastosowano element podwieszanych półek (przy suficie) - co pozwoliło na możliwie najkorzystniejsze zagospodarowanie dostępnego miejsca. &lt;/p&gt;&lt;p&gt;Osiedle charakteryzuje się zadbaną zielenią, dużymi przestrzeniami między budynkami, a na jego terenie znajdują się dostępne dla mieszkańców place zabaw i parking dla gości.&lt;/p&gt;&lt;p&gt;Dodatkowym atutem jest świetna lokalizacja, zapewniająca dobrą komunikację zarówno osobom zmotoryzowanym, jak również przemieszczającym się komunikacją miejską.&lt;/p&gt;&lt;p&gt;W wiele miejsc można dojść pieszo w kilka minut.&lt;/p&gt;&lt;p&gt;POMIESZCZENIA:&lt;/p&gt;&lt;p&gt;- pokój dzienny (salon) z aneksem kuchennym - 19,5 m2;&lt;/p&gt;&lt;p&gt;- pokój (sypialnia) - 6,4 m2 + szafa we wnęce;&lt;/p&gt;&lt;p&gt;- łazienka (z wc) - 4,0 m2 + szafa we wnęce;&lt;/p&gt;&lt;p&gt;- przedpokój - 3,7 m2;&lt;/p&gt;&lt;p&gt;- balkon - 5,1 m2.&lt;/p&gt;&lt;p&gt;KOMÓRKA LOKATORSKA:&lt;/p&gt;&lt;p&gt;- komórka lokatorska o powierzchni 5 m2 (bardzo funkcjonalna, brak wilgoci, brak skosów) - w cenie mieszkania !&lt;/p&gt;&lt;p&gt;MIEJSCA PARKINGOWE:&lt;/p&gt;&lt;p&gt;* Istnieje możliwość zakupu miejsca parkingowego NAZIEMNEGO (jednego bądź dwóch) w zależności od potrzeb - każde w cenie 20 000,00 zł - ZAKUP NIEOBLIGATORYJNY !&lt;/p&gt;&lt;p&gt;** Zakup przedmiotowych miejsc parkingowych to wspaniała inwestycja - nawet jeżeli Państwo nie posiadają pojazdu - to wśród mieszkańców osiedla jest bardzo duże zainteresowanie najmem miejsc parkingowych.&lt;/p&gt;&lt;p&gt;*** Miejsca parkingowe znajdują się na osobnej księdze wieczystej.&lt;/p&gt;&lt;p&gt;WYPOSAŻENIE:&lt;/p&gt;&lt;p&gt;- w mieszkaniu pozostaje wyposażenie widoczne na zdjęciach - bez konieczności ponoszenia dodatkowych opłat !&lt;/p&gt;&lt;p&gt;LOKALIZACJA:&lt;/p&gt;&lt;p&gt;- mieszkanie znajduje się na zamkniętym strzeżonym osiedlu;&lt;/p&gt;&lt;p&gt;- na terenie osiedla znajdują się miejsca parkingowe dla gości oraz place zabaw dla dzieci;&lt;/p&gt;&lt;p&gt;- wjazd na osiedle: brama ze szlabanem z systemem rozpoznawania rejestracji;&lt;/p&gt;&lt;p&gt;- w pobliskiej okolicy znajdują się miejsca sportu i rekreacji: place zabawa, wybieg dla psów, miejsca do uprawiania joggingu, miejsce do grillowania, skatepark;&lt;/p&gt;&lt;p&gt;- mieszkanie zlokalizowane jest w niedalekiej odległości od: Atrium Targówek, Factory Annopol oraz Kompleksu Handlowego Marywilska 44;&lt;/p&gt;&lt;p&gt;- nieopodal znajdują się: piekarnia, szkoła, żłobek, przedszkole, restauracje, drogerie, fryzjer, apteka, a także wiele innych lokali handlowo-usługowych.&lt;/p&gt;&lt;p&gt;KOMUNIKACJA:&lt;/p&gt;&lt;p&gt;- rejon przystanku autobusowego ''Osiedle Derby 01'' oraz ''Osiedle Derby 04'';&lt;/p&gt;&lt;p&gt;- z pobliskich przystanków autobusowych istnieją bezpośrednie połączenia autobusowe ZTM - do stacji METRA TROCKA oraz METRO KONDRATOWICZA; (linie nr: 120, 160, 527, N11);&lt;/p&gt;&lt;p&gt;STAN PRAWNY:&lt;/p&gt;&lt;p&gt;– pełna własność (księgą wieczysta), grunty uregulowane.&lt;/p&gt;&lt;p&gt;Serdecznie zapraszam Państwa do kontaktu i prezentacji. Mieszkanie dostępne jest od zaraz. &lt;/p&gt;&lt;p&gt;Jeśli zakup tej nieruchomości wiąże się ze sprzedażą innej, z przyjemnością przeprowadzę Państwa przez ten proces.&lt;/p&gt;&lt;p&gt;Rafał Jasikowski &lt;/p&gt;&lt;p&gt;Broker i Doradca ds. Nieruchomości &lt;/p&gt;&lt;p&gt;530 - 351 - 162&lt;/p&gt;&lt;p&gt;Propertica Real Estate&lt;/p&gt;&lt;p&gt;Ogłoszenie nie stanowi oferty w rozumieniu przepisów kodeksu cywilnego.&lt;/p&gt;&lt;p&gt;Ogłoszenie nie stanowi oferty w rozumieniu przepisów kodeksu cywilnego.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DOBRY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;40,40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;ANEKS KUCHENNY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;BLOK&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;MIESZANY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2007&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. GAZOWE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;09.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;11.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-1737/7494/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;44&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-odkryta-45m2-mzn2042091804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                450 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=450000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 956 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;45,20 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/6
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Odkryta
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokojowe mieszkanie Białołęka ul. Odkryta
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;2 pokojowe mieszkanie zlokalizowane Białołęka ul. Odkryta&lt;/p&gt;&lt;p&gt;BUDYNEK/OSIEDLE&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się na parterze w 6 piętrowym budynku &lt;/p&gt;&lt;p&gt;Rok budowy: 2002&lt;/p&gt;&lt;p&gt;NIERUCHOMOŚĆ&lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni  45,2 m2 składa się z:&lt;/p&gt;&lt;p&gt;- pokoju dziennego 18,1 m2   z wyjściem na balkon&lt;/p&gt;&lt;p&gt;- sypialni 9,2 m2&lt;/p&gt;&lt;p&gt;- aneksu kuchennego z oknem 7,9 m2&lt;/p&gt;&lt;p&gt;- łazienki 3,2 m2&lt;/p&gt;&lt;p&gt;- przedpokoju  6,8 m2&lt;/p&gt;&lt;p&gt;Powierzchnia dodatkowa:&lt;/p&gt;&lt;p&gt;- balkon&lt;/p&gt;&lt;p&gt;- piwnica&lt;/p&gt;&lt;p&gt;Czynsz administracyjny wynosi 700 zł.&lt;/p&gt;&lt;p&gt;Mieszkanie własnościowe.&lt;/p&gt;&lt;p&gt;Ekspozycja okien - południe&lt;/p&gt;&lt;p&gt;PARKING&lt;/p&gt;&lt;p&gt;- Przypisane miejsce postojowe z ochroną 24h tylko dla mieszkańców (dodatkowo płatne 20 tyś PLN)&lt;/p&gt;&lt;p&gt;OKOLICA&lt;/p&gt;&lt;p&gt;W pobliżu:&lt;/p&gt;&lt;p&gt;- przystanki komunikacji miejskiej,&lt;/p&gt;&lt;p&gt;- sklepy,&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację nieruchomości&lt;/p&gt;&lt;p&gt;W razie zainteresowania prosimy o kontakt: &lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        730
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;,&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        530
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Powyższa oferta ma charakter informacyjny i nie stanowi oferty handlowej w rozumieniu art. 66 §1 Kodeksu Cywilnego.&lt;/p&gt;&lt;p&gt;Podana ulica nieruchomości przy ogłoszeniu ma na celu wskazania przybliżonej lokalizacji z dużą dokładnością.&lt;/p&gt;&lt;p&gt;Bezpłatnie pomagamy znaleźć najkorzystniejszą na rynku ofertę kredytową.&lt;/p&gt;&lt;p&gt;Na życzenie w ramach prezentacji nieruchomości możliwość  przeprowadzenia przez firmę budowlaną oceny stanu mieszkania i wycenę remontu.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DOBRY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;45,20 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/6&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;6&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Z OKNEM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WIEŻOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2002&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;16.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-49134/6624/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;121&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-porajow-53m2-mzn2041543175</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                443 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=443000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            8 311 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;53,30 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 12/12
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Porajów
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Dwa pokoje na Tarchominie ul.Porajów
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Dwupokojowe mieszkanie na Tarchominie przy ul. Porajów. Mieszkanie położone na 12 piętrze z przepiękną panoramą na całą Warszawę.&lt;/p&gt;&lt;p&gt;OFERTA TYLKO W NASZYM BIURZE.&lt;/p&gt;&lt;p&gt;Mieszkanie rozkładowe, dwustronne. Od strony południa duży pokój 19 m2 i kuchnia z oknem 6,9 m2 od strony północy sypialnia 15, 3 m2 . Mały Balkon z systemem drzwi przesuwnych.&lt;/p&gt;&lt;p&gt;Budynek wybudowany w 1983 z wielkiej płyty, ścianka między dużym pokojem a kuchnią jest z cegły i można ją usunąć.&lt;/p&gt;&lt;p&gt;Mogą zostać wszystkie meble.&lt;/p&gt;&lt;p&gt;Do lokalu przynależy piwnica ok, 3,5 m2.&lt;/p&gt;&lt;p&gt;Wymieniona instalacja wodna.&lt;/p&gt;&lt;p&gt;Grunty pod budynkiem są nieuregulowane i zakup jest możliwy tylko za gotówkę.&lt;/p&gt;&lt;p&gt;Pośrednik zawodowo odpowiedzialny Małgorzata Borawska, licencja 2133,&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        501
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;.&lt;p&gt;&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;53,30 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12/12&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-01-26&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1983&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;26.01.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;04.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-585459&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2016&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;29&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-rembertow-pielgrzymow-42m2-mzn2042127417</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                410 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=410000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 573 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;42,83 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/3
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Rembertów,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Pielgrzymów
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Wyjątkowe 2-pok. mieszkanie w ciekawej okolicy
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Szukasz dobrze skomunikowanego mieszkania w atrakcyjnej cenie? Świetnie trafiłeś!&lt;/p&gt;&lt;p&gt;Główne atuty nieruchomości: • bliskość komunikacji miejskiej• rozkład pomieszczeń• dobra ekspozycja na strony świata&lt;/p&gt;&lt;p&gt;Nieruchomość złożona z: • salon 14,5 m.kw• sypialnia 11 m.kw• kuchnia otwarta z oknem 7 m.kw• łazienka główna z prysznicem 5 m.kw• przedpokój 5,33 m.kw&lt;/p&gt;&lt;p&gt;W skład nieruchomości wchodzi też:&lt;/p&gt;&lt;p&gt;• loggia&lt;/p&gt;&lt;p&gt;Typ ogrzewania: ogrzewanie elektryczne. &lt;/p&gt;&lt;p&gt;Typ własności: własność. &lt;/p&gt;&lt;p&gt;Mam przyjemność przedstawić Państwu 2 pokojowe mieszkanie gotowe do wprowadzenia od pierwszego dnia po zakupie.&lt;/p&gt;&lt;p&gt;Największym atutem jest oczywiście cena oraz (jak na tą dzielnicę) szybki i bardzo prosty dojazd do centrum Warszawy, który trwa ok. 20 minut.&lt;/p&gt;&lt;p&gt;W mieszkaniu znajduje się duży, jasny salon z wyjściem na loggię.&lt;/p&gt;&lt;p&gt;Cała okolica pełna jest miejsc idealnych do wypoczynku, sportu czy rekreacji (pływalnie, boiska do piłki nożnej, kompleksy sportowe)&lt;/p&gt;&lt;p&gt;Blisko znajdziemy również sporą ilość interesujących sklepów (Action, Lidl, Żabka, Kaufland, Biedronka) oddalonych nie dalej, niż kilka minut jazdy samochodem bądź komunikacją miejską.&lt;/p&gt;&lt;p&gt;Niecałe 15 minut jazdy samochodem od mieszkania znajduje się również centrum handlowe Atrium Promenada.&lt;/p&gt;&lt;p&gt;Lokalizacja przyjazna dzieciom ze względu na bliskość placów zabaw, przedszkoli i szkół.&lt;/p&gt;&lt;p&gt;Nie zastanawiaj się długo. Takie mieszkania sprzedają się w mgnieniu oka.&lt;/p&gt;&lt;p&gt;Więcej zdjęć i plan powierzchni na /WOCY538&lt;/p&gt;&lt;p&gt;ZADZWOŃ&lt;span class="replacePhone"&gt;:&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        730
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;. Czekamy na telefon od Ciebie. &lt;p&gt;&lt;/p&gt;&lt;p&gt;---&lt;/p&gt;&lt;p&gt;Zakup lub najem nieruchomości przez Agencję Metrohouse to:• największy wybór na rynku• elastyczne podejście do Klienta• bezpieczeństwo transakcji• możliwość skorzystania z szerokiej oferty kredytów gotówkowych i hipotecznych• doświadczeni doradcy&lt;/p&gt;&lt;p&gt;Czy wiesz, że możemy przygotować dla Ciebie prezentację on-line nieruchomości? Skontaktuj się z naszym Agentem i zapytaj o szczegóły.&lt;/p&gt;&lt;p&gt;Pomimo, iż Doradcy Metrohouse przykładają szczególną staranność do rzetelnego prezentowania informacji o nieruchomości, nie zawsze jest możliwa weryfikacja wszystkich danych przekazanych od osób trzecich. Niniejsza prezentacja oferty nie jest ofertą w rozumieniu Kodeksu Cywilnego i ma charakter wyłącznie informacyjny.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Normalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;42,83 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;250 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Kuchnia otwarta z oknem&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Mieszana&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2003&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Ogrzewanie elektryczne&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;23.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;01.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-WOCY538&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;94&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-rembertow-pielgrzymow-43m2-mzn2042132642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                410 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=410000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 535 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;43 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Rembertów,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Pielgrzymów
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Kameralne mieszkanie w przyjaznej okolicy
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mam przyjemność zaoferować na sprzedaż dwu pokojowe mieszkanie położone w zielonej części Warszawy. Mieszkanie położone jest w centrum Starego Rembertowa, ale w delikatnym oddaleniu od głównej ulicy. &lt;/p&gt;&lt;p&gt;Po wejściu do mieszkania, wydaje się ono większe, niż jest w rzeczywistości. Uroku dodaje zieleń, którą widać z balkonu i okien. &lt;/p&gt;&lt;p&gt;Dużą zaletą mieszkania są pojemne szafy wnękowe, które zostają na wyposażeniu. Jedna znajduje się w salonie, druga w przedpokoju.&lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni 43 m2 składa się z:&lt;/p&gt;&lt;p&gt;- salon z wyjściem na balkon,&lt;/p&gt;&lt;p&gt;- sypialnia,&lt;/p&gt;&lt;p&gt;- kuchnia z oknem,&lt;/p&gt;&lt;p&gt;- przedpokój,&lt;/p&gt;&lt;p&gt;- łazienka.&lt;/p&gt;&lt;p&gt;Mieszkanie ma duży potencjał aranżacyjny. Jest możliwość połączenia salonu z kuchnią, co da nam bardzo dużą przestrzeń dzienną z aneksem kuchennym.&lt;/p&gt;&lt;p&gt;Mieszkanie było remontowane 2 lata temu i jest gotowe do wprowadzenia od zaraz.&lt;/p&gt;&lt;p&gt;INFORMACJE DODATKOWE:&lt;/p&gt;&lt;p&gt;Do bloku przynależy kilkanaście miejsc parkingowych, więc nie ma problemu z zaparkowaniem samochodu.&lt;/p&gt;&lt;p&gt;Stan prawny: mieszkanie własnościowe z Księgą Wieczystą. Grunty są uregulowane. Mieszkanie można kupić na kredyt klasyczny lub obecnie bardzo popularny 2%.&lt;/p&gt;&lt;p&gt;LOKALIZACJA:&lt;/p&gt;&lt;p&gt;W bardzo bliskim sąsiedztwie znajduje się wiele sklepów, kilka restauracji, piekarnie, kawiarnie i park. Do najbliższego przystanku autobusowego dotrzesz w 3 minuty, a do przystanku SKM w 10 minut pieszo. W okolicy znajduje się wiele sklepów, tj. Biedronka, Lidl, Action, Rossmann, czy Empik.&lt;/p&gt;&lt;p&gt;W mojej ocenie, mieszkanie jest idealne zarówno dla osób starszych, jak i studentów (blisko uczelnia AON), czy młodych małżeństw. &lt;/p&gt;&lt;p&gt;Serdecznie zapraszam na prezentacje nieruchomości.&lt;/p&gt;&lt;p&gt;Marta Bernadkiewicz&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        795
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;43 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-05-31&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Pustak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2004&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Elektryczne&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;31.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-195933&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;120&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-michala-kleofasa-oginskiego-42m2-mzn2042090510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                460 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=460000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 952 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;42 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 3/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Michała Kleofasa Ogińskiego
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokojowe mieszkanie Targówek ul. Ogińskiego
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;2 pokojowe mieszkanie zlokalizowane Targówek ul. Michała Kleofasa Ogińskiego&lt;/p&gt;&lt;p&gt;BUDYNEK/OSIEDLE&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się na 3 piętrze w  10 piętrowym budynku &lt;/p&gt;&lt;p&gt;Rok budowy: 1975&lt;/p&gt;&lt;p&gt;NIERUCHOMOŚĆ&lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni 42  m2 składa się z:&lt;/p&gt;&lt;p&gt;salon, sypialnia, kuchnia, łazienka z WC oraz przedpokój. &lt;/p&gt;&lt;p&gt;Powierzchnia dodatkowa:&lt;/p&gt;&lt;p&gt;- balkon&lt;/p&gt;&lt;p&gt;- piwnica&lt;/p&gt;&lt;p&gt;Czynsz administracyjny wynosi 550 zł.&lt;/p&gt;&lt;p&gt;Mieszkanie  spółdzielcze wł. , grunty są nieureg.&lt;/p&gt;&lt;p&gt;PARKING&lt;/p&gt;&lt;p&gt;- ogólnodostępny.&lt;/p&gt;&lt;p&gt;OKOLICA&lt;/p&gt;&lt;p&gt;Pełna infrastruktura: W pobliżu u znajdują się osiedlowe sklepy, markety, Z Apteka, Lidl, Biedronka, galeria Renova i Park Bródnowski, szkoły podstawowe, przedszkola, przychodnie.&lt;/p&gt;&lt;p&gt;Super komunikacja i lokalizacja: liczne przystanki autobusowe, linia tramwajowa, i stacja metra Bródno&lt;/p&gt;&lt;p&gt;Droga do centrum wynosi około 20 min autem.&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację nieruchomości&lt;/p&gt;&lt;p&gt;W razie zainteresowania prosimy o kontakt: &lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        730
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;,&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        530
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Powyższa oferta ma charakter informacyjny i nie stanowi oferty handlowej w rozumieniu art. 66 §1 Kodeksu Cywilnego.&lt;/p&gt;&lt;p&gt;Podana ulica nieruchomości przy ogłoszeniu ma na celu wskazania przybliżonej lokalizacji z dużą dokładnością.&lt;/p&gt;&lt;p&gt;Bezpłatnie pomagamy znaleźć najkorzystniejszą na rynku ofertę kredytową.&lt;/p&gt;&lt;p&gt;Na życzenie w ramach prezentacji nieruchomości możliwość  przeprowadzenia przez firmę budowlaną oceny stanu mieszkania i wycenę remontu.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DOBRY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;42 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Z OKNEM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;SPÓŁDZIELCZE WŁASNOŚCIOWE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WIEŻOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1975&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;15.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-49131/6624/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;174&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-krasiczynska-39m2-mzn2042128043</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                440 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=440000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 282 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Krasiczyńska
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokojowe mieszkanie Targówek ul. Krasiczyńska
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;2 pokojowe mieszkanie zlokalizowane Targówek ul. Krasiczyńska&lt;/p&gt;&lt;p&gt;BUDYNEK/OSIEDLE&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się na parterze w 10 piętrowym budynku &lt;/p&gt;&lt;p&gt;Rok budowy: 1972&lt;/p&gt;&lt;p&gt;NIERUCHOMOŚĆ&lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni 39  m2 składa się z:&lt;/p&gt;&lt;p&gt;- pokój 520 x 300 cm&lt;/p&gt;&lt;p&gt;- pokój 424 x 207 cm&lt;/p&gt;&lt;p&gt;- kuchnia 321 x 176 cm&lt;/p&gt;&lt;p&gt;- przedpokój 174 x 220 cm&lt;/p&gt;&lt;p&gt;- łazienka 203 x 140 cm&lt;/p&gt;&lt;p&gt;Powierzchnia dodatkowa:&lt;/p&gt;&lt;p&gt;- balkon (loggia) o szerokości ok 300cm&lt;/p&gt;&lt;p&gt;- komórka lokatorska&lt;/p&gt;&lt;p&gt;Czynsz administracyjny wynosi 500 zł.&lt;/p&gt;&lt;p&gt;Mieszkanie spółdzielcze wł., grunty są ureg.&lt;/p&gt;&lt;p&gt;PARKING&lt;/p&gt;&lt;p&gt;- ogólnodostępny.&lt;/p&gt;&lt;p&gt;OKOLICA&lt;/p&gt;&lt;p&gt;W pobliżu:&lt;/p&gt;&lt;p&gt;- przystanki komunikacji miejskiej,&lt;/p&gt;&lt;p&gt;- sklepy&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację nieruchomości&lt;/p&gt;&lt;p&gt;W razie zainteresowania prosimy o kontakt: &lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        730
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;,&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        530
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Powyższa oferta ma charakter informacyjny i nie stanowi oferty handlowej w rozumieniu art. 66 §1 Kodeksu Cywilnego.&lt;/p&gt;&lt;p&gt;Podana ulica nieruchomości przy ogłoszeniu ma na celu wskazania przybliżonej lokalizacji z dużą dokładnością.&lt;/p&gt;&lt;p&gt;Bezpłatnie pomagamy znaleźć najkorzystniejszą na rynku ofertę kredytową.&lt;/p&gt;&lt;p&gt;Na życzenie w ramach prezentacji nieruchomości możliwość  przeprowadzenia przez firmę budowlaną oceny stanu mieszkania i wycenę remontu.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DOBRY&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Z OKNEM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;SPÓŁDZIELCZE WŁASNOŚCIOWE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WIEŻOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1972&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;23.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-49421/6624/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;88&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-suwalska-46m2-mzn2042134677</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                459 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=459000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 978 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;3 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;46 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 3/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Suwalska
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        METRO BRÓDNO 3 pokoje 46 m2 do remontu
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;3 POKOJE ODDZIELNA KUCHNIA METRO BRÓDNO TARGÓWEK DO REMONTU &lt;/p&gt;&lt;p&gt;Do sprzedania mieszkanie 3-pokojowe o powierzchni 46 m2 przy ul. Suwalskiej, os. Bródno, Targówek, tuż obok stacji metra Bródno. Mieszkanie posiada 3 oddzielne pokoje (14, 10, 6 m2), widną kuchnię (5,5 m2), łazienkę (3 m2), przedpokój oraz balkon. Na podłogach w pokojach jest drewniana mozaika, okna PCV, wymienione piony wodno-kanalizacyjne, piony ogrzewania oraz grzejniki. Mieszkanie wymaga remontu. Widok na drzewa oraz Ogród Jordanowski. Piętro 3 z 4, bez windy. Rama H. Grunty uregulowane. Można założyć księgę wieczystą i kupić na kredyt. Do mieszkania przynależy duża piwnica. Czynsz 550 zł (z zaliczką na wodę, podatkiem od nieruchomości i śmieciami). &lt;/p&gt;&lt;p&gt;Na osiedlu ogólnodostępne parkingi. W pobliżu przedszkola, szkoła podstawowa, liceum oraz Wyższa Szkoła Bankowa. Bogatą ofertę sportową zapewni pobliski OSiR Targówek (siłownia, basen, boiska). Poza tym w ramach osiedla dostępne są sklepy, usługi i gastronomia. Bardzo dobry punkt komunikacyjny, do dyspozycji mamy aż 3 środki transportu: metro, tramwaj i autobus. Komunikację samochodową ułatwia pobliska trasa S8. &lt;/p&gt;&lt;p&gt;Bardzo dobra propozycja pod wynajem. Sąsiedztwo stacji metra i uczelni wyższej zapewni bezproblemowe wynajęcie.&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację.&lt;/p&gt;&lt;p&gt;Biuro nieruchomości.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;46 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-05-21&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1975&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;26.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;31.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-OB541778&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;151&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;11&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-ursus-45m2-mzn2041819809</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                454 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=454000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 089 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;45 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 5/7
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Ursus
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        OKAZJA atrakcyjne mieszkanie z basenem, siłownią i sauną tylko dla mieszkańców o
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;***Przestronne bardzo atrakcyjne mieszkanie na warszawskim Ursusie***&lt;/p&gt;&lt;p&gt;Piętro 5/7&lt;/p&gt;&lt;p&gt;Przestronne i jasne mieszkanie o wygodnym do ciekawych aranżacji rozkładzie.&lt;/p&gt;&lt;p&gt;Mieszkanie zadbane, gotowe do wprowadzenia.&lt;/p&gt;&lt;p&gt;Widok z okna ze względu na 5 piętro robi wrażenie.&lt;/p&gt;&lt;p&gt;Bardzo przyjazne osiedle.&lt;/p&gt;&lt;p&gt;Balkon typu loggia, zamykany na wygodne przesuwne okna.&lt;/p&gt;&lt;p&gt;Mieszkanie umeblowane w meble stałe+ sprzęt AGD.&lt;/p&gt;&lt;p&gt;Klimatyzacja z gwarancją założona rok temu. &lt;/p&gt;&lt;p&gt;Do mieszkania przynależy garaż na parkingu wielopoziomowym za dodatkową opłatą (30000zł)&lt;/p&gt;&lt;p&gt;Na osiedlu znajdują się także miejsca parkingowe dla gości.&lt;/p&gt;&lt;p&gt;Mieszkańcy mają możliwość korzystania z części wspólnych: basen (z ratownikiem), siłownia, sauna w ramach czynszu. Zajęcia dla dzieci, nauka pływania. Nikt poza mieszkańcami nie może uczęszczać.&lt;/p&gt;&lt;p&gt;Planowana stacja metra Karolin w niedalekiej odległości.&lt;/p&gt;&lt;p&gt;Bliskość wszelakich sklepów, paczkomaty, przedszkola, szkoła, fryzjer, stomatolog itp.&lt;/p&gt;&lt;p&gt;W skład lokalu wchodzi:&lt;/p&gt;&lt;p&gt;- pokój dzienny,&lt;/p&gt;&lt;p&gt;- sypialnia, w której zamontowana jest pojemna szafa wnękowa&lt;/p&gt;&lt;p&gt;- kuchnia z meblami oraz sprzętem AGD (lodówka, mikrofalówka, kuchenka)&lt;/p&gt;&lt;p&gt;- korytarz z pojemną szafą wnękową&lt;/p&gt;&lt;p&gt;- loggia (balkon)&lt;/p&gt;&lt;p&gt;Dodatkowo jest&lt;/p&gt;&lt;p&gt;- miejsce parkingowe na pobliskim parkingu piętrowym, fajne narożne miejsce, można wykorzystać płatne dodatkowo 30 000pln&lt;/p&gt;&lt;p&gt;Lokalizacja:&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się niedaleko skrzyżowania ul. Regulska z Górna Droga&lt;/p&gt;&lt;p&gt;Komunikacja:&lt;/p&gt;&lt;p&gt;- autobusy i tramwaje (linie 191, 207)&lt;/p&gt;&lt;p&gt;Zapraszam do kontaktu telefonicznego i na prezentację! :-)&lt;/p&gt;&lt;p&gt;Dzień otwarty 11.05.2023 od 14:00 - do 19:00, wystarczy telefon by wpisac się na odpowiadającą Państwu godzinę.&lt;/p&gt;&lt;p&gt;Aneta Cichońska&lt;/p&gt;&lt;p&gt;Doradca ds. Nieruchomości&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        575
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;&lt;span class="replaceEmail"&gt;anetacichonska.koloseum@gmail.com&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Niniejsza informacja nie stanowi oferty w rozumieniu Kodeksu Cywilnego. Dokładamy wszelkich starań, aby informacje dotyczące oferowanych obiektów były możliwie dokładne, kompletne i aktualne. Ze względu jednak na fakt, iż informacje te pochodzą od osób trzecich i nie zawsze dają się zweryfikować, firma KOLOSEUM NIERUCHOMOŚCI nie ponosi odpowiedzialności za ich dokładność, kompletność oraz aktualność.&lt;/p&gt;&lt;p&gt;Numer licencji pośrednika odpowiedzialnego za ofertę: 19837&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Bardzo dobry&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;45 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;5/7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Aneks kuchenny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Mieszany&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2001&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;22.03.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;30.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-518515&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1080&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-piotra-wysockiego-48m2-mzn2041410676</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                449 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=449000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 354 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;3 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;48 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 10/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Piotra Wysockiego
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        ⭐Mieszkanie pod inwestycję, 3 pokoje ⭐
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;  ✅ ⭐IDEALNE POD INWESTYCJE NA DŁUGIE LATA / DUŻEJ RODZINY⭐✅&lt;/p&gt;&lt;p&gt;OPIS:&lt;/p&gt;&lt;p&gt;  ⭐ Trzy pokojowe mieszkanie z oddzielną kuchnią, o powierzchni 48m2, zlokalizowane na warszawskim Bródnie, przy ul.Piotra Wysockiego&lt;/p&gt;&lt;p&gt;Ekspozycja okien na południowy zachód z widokiem na panoramę Warszawy. Mieszkanie do własnej aranżacji.  &lt;/p&gt;&lt;p&gt;- Piętro 10/10, &lt;/p&gt;&lt;p&gt;- dwie windy&lt;/p&gt;&lt;p&gt;- budynek z roku 1974&lt;/p&gt;&lt;p&gt;LOKALIZACJA:&lt;/p&gt;&lt;p&gt; ⭐ Bliskość komunikacji miejskiej pozwoli na przedostanie się do różnych dzielnic Warszawy. Blisko trasa szybkiego ruchu s8. Przystanki autobusowe 300m od budynku&lt;/p&gt;&lt;p&gt;Metro Bródno 900m, w pobliżu liczne sklepy (Biedronka, Żabka, Lidl, Top Market, 24H, Carrefour Expres), bazarek, apteka, kościół, przychodnia lekarska, przedszkole, szkoła, place zabaw dla dzieci, park bródnowski,  Centrum Handlowego Atrium Targówek, Galeria Renova 900m i M1.&lt;/p&gt;&lt;p&gt;STAN PRAWNY:&lt;/p&gt;&lt;p&gt;*spółdzielcze własnościowe prawo do lokalu bez KW (grunty nieuregulowane)&lt;/p&gt;&lt;p&gt;CENA:&lt;/p&gt;&lt;p&gt;  ⭐  449TYS wraz z powierzchnią przynależną &lt;/p&gt;&lt;p&gt; ✅ Mieszkanie do remontu z możliwością do własnej aranżacji oraz przerobienie na 4 pokoje (rodzina 2+3)&lt;/p&gt;&lt;p&gt;ZAPRASZAM  NA PREZENTACJĘ !&lt;/p&gt;&lt;p&gt;Treść niniejszego ogłoszenia nie stanowi oferty handlowej w rozumieniu Kodeksu Cywilnego. Treść ma charakter informacyjny i zalecamy ich osobistą weryfikację.&lt;/p&gt;&lt;p&gt;Zgodnie z przepisami Ustawy z dnia 4 lutego 1994 r. o prawie autorskim i prawach pokrewnych (Dz.U. z 1994r. Nr 24, poz. 83, z późn. zm.). Kopiowanie treści oraz fotografii i planów bez pisemnej zgody autora stanowi naruszenie majątkowych praw autorskich oraz podstawę odpowiedzialności karnej przewidzianej przepisami art. 116 § 1-4 ww. ustawy.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO REMONTU KAPIT.&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;48 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;ODDZIELNA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;SPÓŁDZIELCZE WŁASNOŚCIOWE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WIEŻOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1974&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;19.12.2022&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-18143/2517/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2136&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-odkryta-44m2-mzn2041029887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                440 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=440000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 000 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;44 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/4
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Tarchomin,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Odkryta
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokoje, oddzielna kuchnia tramwaj,metro, autobus
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Szanowni Państwo,&lt;/p&gt;&lt;p&gt;mam przyjemność zaprezentowania Państwu mieszkanie o powierzchni 44m2-2 pokoje, oddzielna kuchnia z oknem, łazienka, WC, balkon.&lt;/p&gt;&lt;p&gt;Osiedle zamknięte wybudowane przez Dom Development w 2005 roku w otoczeniu zieleni. Istnieje możliwość parkowania na parkingu osiedlowym.&lt;/p&gt;&lt;p&gt;Komunikacja&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się w miejscu gdzie jest pełna infrastruktura: sklepy spożywcze, przychodnie lekarskie , przedszkola, szkoły&lt;/p&gt;&lt;p&gt;W niecałe 3 min pieszo (~300m) dotrzeć można do najbliższego przystanku tramwajowego przy ul. Światowida, skąd odjeżdżają tramwaj linii 2 i 17 jadące w stronę Metro Młociny (15 min jazdy)  i PKP Służewiec. Oprócz tego w pobliżu znajdują się liczne przystanki autobusowe, skąd autobusy dojeżdżają do centrum Warszawy.&lt;/p&gt;&lt;p&gt;Osoby aktywne docenią bliskość wału wiślanego, licznych ścieżek rowerowych i terenów zielonych idealnych na spacery.&lt;/p&gt;&lt;p&gt;Zapraszam serdecznie do kontaktu&lt;/p&gt;&lt;p&gt;Powyższa oferta ma charakter informacyjny i nie stanowi oferty handlowej w rozumieniu art. 66 §1 Kodeksu Cywilnego.&lt;/p&gt;&lt;p&gt;Bezpłatnie pomagamy znaleźć najkorzystniejszą na rynku ofertę kredytową.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;44 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;275 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Osobna&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-05-02&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Cegła&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2005&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Bardzo dobry&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;01.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;01.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-320&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1227&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-strumykowa-40m2-mzn2041034557</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                420 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=420000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 352 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;40,57 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 1/3
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa M.,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Tarchomin,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Strumykowa
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Mieszkanie na kameralnym osiedlu 2 pokojowe
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;W DNIACH 6-16 czerwca kontakt tylko mailowy pod adresem: konrad @ laszewski . com . pl &lt;/p&gt;&lt;p&gt;Bez prowizji od kupujących! &lt;/p&gt;&lt;p&gt;(brak prowizji w przypadku klientów gotówkowych lub klientów, którzy skorzystają z specjalisty kredytowego poleconego przez nasze biuro) &lt;/p&gt;&lt;p&gt;Poszukujesz idealnej inwestycji pod najem z bardzo dobrą komunikacją?  Chcesz kupić w atrakcyjnej cenie nieruchomość jako lokatę kapitału? Albo chcesz kupić mieszkanie dla syna lub córki, która studiuje albo pracuje w Warszawie? A może potrzebujesz małego, ale bardzo ustawnego mieszkania z garażem podziemnym i windą w spokojnej okolicy? &lt;/p&gt;&lt;p&gt;Jeżeli tak to koniecznie umów się na prezentację tej nieruchomości! &lt;/p&gt;&lt;p&gt;MIESZKANIE &lt;/p&gt;&lt;p&gt;Mieszkanie na ulicy Strumykowej 6B jest świetnym mieszkaniem dla osoby ceniącej sobie praktyczny układ na niedużym metrażu. Ta nieruchomość przy 40,57 metrach kwadratowych mieści w sobie sporą łazienkę (4,2 m2), salon z aneksem kuchennym (18,6 m2) oraz osobną sypialnię (11,45 m2). Wcześniej to była kawalerka, ale zostało to przerobione. Dodatkowym atutem rzadko występującym przy takich mieszkaniach jest to, że lokum jest dwustronne (kierunki pn-zach, pd-wsch). Na podłodze mamy płytki oraz deskę barlineckę. W salonie położono jeszcze naklejki podłogowe. Lokal wymaga odświeżenia, a dla osób bardziej wymagających częściowego remontu. W mieszkaniu nie ma tradycyjnego balkonu - tylko francuski. &lt;/p&gt;&lt;p&gt;BUDYNEK &lt;/p&gt;&lt;p&gt;Powstał w 2010 roku. Posiada wszelkie dogodności, które wiążą się z budownictwem z tamtych lat - posiada windę oraz garaż podziemny (w cenie 30 tysięcy złotych, dodatkowo płatne - kupno obowiązkowe). W związku z tym, że jest to stosunkowo nowe budownictwo instalacje elektryczne oraz wodno-kanalizacyjne są w bardzo dobrym stanie. &lt;/p&gt;&lt;p&gt;OKOLICA &lt;/p&gt;&lt;p&gt;W pobliżu jest tramwaj nr 2, który dojeżdża do stacji metra Młociny, a jeżeli komuś zależy, aby dotrzeć do centrum bez przesiadek to polecam linię nr 17. Taka forma transportu pozwala omijać wszystkie korki. Dodatkowo w pobliżu jeżdżą autobusy linii 186, 509, 133 oraz 233 i autobusy nocne N01, N03, N13, N63. Infrastruktura w okolicy jest bardzo rozwinięta. Tuż przy osiedlu jest duży sklep - Stokrotka. Rzut beretem pieszo znajduje się Lidl oraz Biedronka. Dla lubiących ruch jest Białostocki ośrodek sportu z basenem, a gdyby chciało się pobiegać można wybrać się na spacer wzdłuż Wisły. Na większe zakupy można podjechać dwa przystanki do Galerii Północnej. &lt;/p&gt;&lt;p&gt;Przekonany? Zadzwoń!&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Do częściowego remontu&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;40,57 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;250 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1/3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stolarka okienna&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Nowe PCV&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2010&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;08.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-LSW-MS-174&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1167&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;30&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-krasnobrodzka-46m2-mzn2042161594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                459 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=459000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 970 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;46,04 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek Mieszkaniowy,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Krasnobrodzka
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokojowe mieszkanie na spokojnym Bródnie
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Zapraszam Państwa do zapoznania się z ofertą 2-pokojowego mieszkania na Bródnie z dala od zgiełku miasta jednocześnie blisko stacji metra.&lt;/p&gt;&lt;p&gt;Rozkład pomieszczeń:&lt;/p&gt;&lt;p&gt;Mieszkanie o powierzchni 46,4 m2 składa się z:&lt;/p&gt;&lt;p&gt;- dużego salonu &lt;/p&gt;&lt;p&gt;- dużej przestronnej sypialni &lt;/p&gt;&lt;p&gt;- oddzielnej kuchni &lt;/p&gt;&lt;p&gt;- przedpokoju &lt;/p&gt;&lt;p&gt;- łazienki z wanną &lt;/p&gt;&lt;p&gt;Do mieszkania przynależy piwnica.&lt;/p&gt;&lt;p&gt;Największe atuty:&lt;/p&gt;&lt;p&gt;-Cicha i spokojna okolica,&lt;/p&gt;&lt;p&gt;-Ekspozycja północ-wschód, dzięki czemu nawet w upalne dni w mieszkaniu panuje przyjemny chłód,&lt;/p&gt;&lt;p&gt;-Blisko stacja metra Kondratowicza,&lt;/p&gt;&lt;p&gt;Rewelacyjna lokalizacja:&lt;/p&gt;&lt;p&gt;Blisko park Bródnowski, Las Bródnowski, CH Targówek, CH M1, szkoły, przedszkola, kilka restauracji.&lt;/p&gt;&lt;p&gt;Przed budynkiem znajduje się plac zabaw a obok liczne miejsca parkingowe.&lt;/p&gt;&lt;p&gt;W 2 minuty dojazd na trasę S8.&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację!&lt;/p&gt;&lt;p&gt;Mateusz Władziński&lt;/p&gt;&lt;p&gt;Pośrednik nieruchomości&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        574
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;U NAS NAJKORZYSTNIEJ, NAJSZYBCIEJ I BEZPIECZNIE!&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Jeżeli zainteresowało Cię powyższe ogłoszenie to:&lt;/p&gt;&lt;p&gt;- Zadzwoń pod wskazany nr telefonu.&lt;/p&gt;&lt;p&gt;- Umów się na prezentację. W trosce o naszych Klientów NIE PRZEKAZUJEMY adresów nieruchomości.&lt;/p&gt;&lt;p&gt;- Przyjedź i obejrzyj na żywo.&lt;/p&gt;&lt;p&gt;- Zaproponuj swoją cenę prezentowanej nieruchomości.&lt;/p&gt;&lt;p&gt;Gwarantujemy bezpieczny zakup i najlepszą cenę.&lt;/p&gt;&lt;p&gt;W swoim portfelu posiadamy wyłącznie aktualne oferty.&lt;/p&gt;&lt;p&gt;Oferujemy skuteczną i bezpłatną pomoc w uzyskaniu taniego kredytu.&lt;/p&gt;&lt;p&gt;Wszystkie nasze transakcje są objęte ubezpieczeniem OC w PZU.&lt;/p&gt;&lt;p&gt;Z nami u Notariusza dostaniesz nawet do 50% zniżki.&lt;/p&gt;&lt;p&gt;Więcej podobnych ofert znajdziesz na naszej stronie internetowej.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;46,04 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wielka płyta&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1975&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;31.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;31.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-GOF315516&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;102&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-ursus-posag-7-panien-40m2-mzn2042055208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                459 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=459000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 472 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;40,01 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 7/7
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Ursus,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Posag 7 Panien
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        ODBIÓR wrzesień 2023
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;2023 ODBIÓR budynek Adventure.&lt;/p&gt;&lt;p&gt;Dwa pokoje super przestrzenne z niczym nie zapłaconym widokiem, intymne NIKT NIE ZAGLĄDA W OKNA.&lt;/p&gt;&lt;p&gt;Miejsce postojowe pod domem dodatkowo płatne 25 000 zł.&lt;/p&gt;&lt;p&gt;W tym samym budynku mieszkania o tym samym metrażu i rozkładzie mamy na pierwszym i czwartym piętrze.&lt;/p&gt;&lt;p&gt;MOŻLIWOSC WYKOŃCZENIA DO STANU POD KLUCZ LUB NAWET ZAMIESZKANIA (czyli całkowite wyposażenie).&lt;/p&gt;&lt;p&gt;Czekam na propozycje pod numer&lt;span class="replacePhone"&gt; .&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        501
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;&lt;/p&gt;&lt;p&gt;Mieszkańcy IWESTYCJI mogą korzystać z dostępnych już ze stref rekreacji i zieleni,  z licznych lokali usługowych, placów zabaw, siłowni plenerowych oraz boiska do siatkówki.&lt;/p&gt;&lt;p&gt;W okolicy liczne sklepy spożywcze, restauracje, centrum handlowe Factory, a także EkoPark z wieloma placami zabaw oraz ścieżkami do spacerów i jazdy rowerem.&lt;/p&gt;&lt;p&gt;O świetnej lokalizacji mieszkania świadczy dojazd do centrum Warszawy w 15 minut, dzięki bliskości stacji kolei SKM i KM, jak i również autobusów ZTM, a także niedaleka odległość od głównej drogi dojazdowej do centrum Warszawy (Al. Jerozolimskie) oraz obwodnicy (bliskość Lotniska Chopina).&lt;/p&gt;&lt;p&gt;* Niniejsza oferta nie stanowi oferty handlowej w rozumieniu przepisów Kodeksu Cywilnego *&lt;/p&gt;&lt;p&gt;* Oświadczenie&lt;/p&gt;&lt;p&gt;1) Oświadczam, że zapoznałam/em się z treścią klauzuli informacyjnej.&lt;/p&gt;&lt;p&gt;2) Na podstawie art. 6 ust.1 Rozporządzenia o Ochronie Danych Osobowych z dnia 27 kwietnia 2016r. wyrażam zgodę na przetwarzanie moich danych osobowych w celu:&lt;/p&gt;&lt;p&gt;- otrzymywania informacji handlowych drogą elektroniczną&lt;/p&gt;&lt;p&gt;- otrzymywania informacji marketingowych&lt;/p&gt;&lt;p&gt;Szanowni Państwo, &lt;/p&gt;&lt;p&gt;Nasze biuro jest legalnie działającym podmiotem na rynku nieruchomości.&lt;/p&gt;&lt;p&gt;Posiadamy licencje zawodowe z zakresu pośrednictwa w obrocie nieruchomościami, wraz z obowiązkowym ubezpieczeniem OC.&lt;/p&gt;&lt;p&gt;Podejmując z nami współpracę w zakresie sprzedaży, kupna i wynajęcia nieruchomości, mają Państwo pewność profesjonalnego przeprowadzenia przez wszystkie etapy transakcji.&lt;/p&gt;&lt;p&gt;Serdecznie zapraszamy do współpracy.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO WYKOŃCZENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;40,01 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;7/7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;7&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;APARTAMENTOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;CEGŁA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;26.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-1503/914/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;299&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-41m2-mzn2042134378</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                459 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=459000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 087 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;41,40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 1/2
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Brzeziny
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Mieszkanie 2 pokojowe na Białołęce
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mieszkanie 2 pokojowe na Białołęce. W cichej i spokojnej okolicy.&lt;/p&gt;&lt;p&gt;Mieszkanie 2 pokojowe na Białołęce.&lt;/p&gt;&lt;p&gt;Cicha i bezpieczna okolica, mieszkanie na pierwszym piętrze w 2 kondygnacyjnym budynku.&lt;/p&gt;&lt;p&gt;Dobrze skomunikowany dojazd do metra około 10 minut, blisko trasy S8 ok. 2 minuty, samochodem.&lt;/p&gt;&lt;p&gt;W okolicy znajdują się wszystkie potrzebne do życia usługi, takie jak sklepy, apteki, galeria handlowa, IKEA, poczta. żłobek i szkoła.&lt;/p&gt;&lt;p&gt;Metraż 41,39m2.&lt;/p&gt;&lt;p&gt;Mieszkanie do delikatnej odnowy, lokal posiada najemców do lutego, później się wyprowadzą. Istnieje możliwość przejęcia lokalu wcześniej, najemcy będą rozliczać się nowym właścicielem.&lt;/p&gt;&lt;p&gt;Czynsz z dodatkowymi kosztami to 526,88 zł + Opłaty za media.&lt;/p&gt;&lt;p&gt;Forma własności pełna własność.&lt;/p&gt;&lt;p&gt;Lokal jest dobry jako inwestycja pod wynajem, potencjał około&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+         30
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;zł brutto.&lt;p&gt;&lt;/p&gt;&lt;p&gt;Meble oraz inne urządzenia do dogadania z najemcą.&lt;/p&gt;&lt;p&gt;Mieszkanie 2 pokojowe na Białołęce.&lt;/p&gt;&lt;p&gt;Cicha i bezpieczna okolica, mieszkanie na pierwszym piętrze w 2 kondygnacyjnym budynku.&lt;/p&gt;&lt;p&gt;Dobrze skomunikowany dojazd do metra około 10 minut, blisko trasy S8 ok. 2 minuty, samochodem.&lt;/p&gt;&lt;p&gt;W okolicy znajdują się wszystkie potrzebne do życia usługi, takie jak sklepy,&lt;/p&gt;&lt;p&gt;Czy wiesz, że możemy przygotować dla Ciebie prezentację on-line nieruchomości? Skontaktuj się z naszym Agentem i zapytaj o szczegóły.&lt;/p&gt;&lt;p&gt;Pomimo, iż Doradcy Metrohouse przykładają szczególną staranność do rzetelnego prezentowania informacji o nieruchomości, nie zawsze jest możliwa weryfikacja wszystkich danych przekazanych od osób trzecich. Niniejsza prezentacja oferty nie jest ofertą w rozumieniu Kodeksu Cywilnego i ma charakter wyłącznie informacyjny.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;41,40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;265 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1/2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Otwarta&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. łazienki&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4,11 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;łazienka razem z WC&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Taras&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Nie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Cena do negocjacji&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Pustak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2010&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Bardzo dobry&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;26.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;26.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-LILA925&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;121&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-gioacchino-rossiniego-43m2-mzn2042065928</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                435 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=435000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 116 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;43 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 2/2
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Gioacchino Rossiniego
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        ❗️REZERWACJA ✅ 2 POKOJOWE ✔️ GARAŻ
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mam przyjemność zaprezentować Państwu nieruchomość na Białołęce. Mieszkanie 2 Pokojowe gotowe do wprowadzenia w pełni wyposażone.&lt;/p&gt;&lt;p&gt;Lokal znajduje się na kameralnym, strzeżonym osiedlu z ochroną.&lt;/p&gt;&lt;p&gt;przy ulicy Rossiniego.&lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się na II piętrze, bardzo jasne,&lt;/p&gt;&lt;p&gt;ciche i przytulne. Gotowe do zamieszkania.&lt;/p&gt;&lt;p&gt;Nieruchomość 42,82 m2 składa się z: &lt;/p&gt;&lt;p&gt;- Przestronny salon 16,36 m2 z wyjściem na balkon&lt;/p&gt;&lt;p&gt;- Aneks kuchenny 5,88 m2 &lt;/p&gt;&lt;p&gt;- Sypialnia o pow. 10,65 m2&lt;/p&gt;&lt;p&gt;- Przedpokój 5,15 m2&lt;/p&gt;&lt;p&gt;- Łazienka 4,35 m2&lt;/p&gt;&lt;p&gt;Świetne miejsce do zamieszkania, dla pary, lub pod inwestycje wynajmu albo dla singla lub singielki.&lt;/p&gt;&lt;p&gt;✔️Do mieszkania przynależy: &lt;/p&gt;&lt;p&gt;Miejsce Parkingowe w Garażu (Dodatkowo płatne)&lt;/p&gt;&lt;p&gt;Cena ( do rozsądnej negocjacji ) &lt;/p&gt;&lt;p&gt;Ważne informacje dla Ciebie:&lt;/p&gt;&lt;p&gt;✔️TAK w razie potrzeby zbadasz swoją zdolność kredytową,&lt;/p&gt;&lt;p&gt;✔️TAK przeprowadzimy Cię szybko i sprawnie przez procedurę kredytową &lt;/p&gt;&lt;p&gt;W najbliższej okolicy znajduje się wszystko czego potrzeba w codziennym życiu. &lt;/p&gt;&lt;p&gt;W pobliżu zlokalizowane są liczne sklepy spożywcze, &lt;/p&gt;&lt;p&gt;Lidl, Biedronka. apteka, poczta, &lt;/p&gt;&lt;p&gt;Centrum handlowe: Centrum Targowe M1, Atrium Targówek, Galeria Północna, Factory Annopol, Ikea Targówek, oddziały banków, przychodnia.&lt;/p&gt;&lt;p&gt;Znajdziesz tu także wiele placówek edukacyjnych, &lt;/p&gt;&lt;p&gt;w tym szkół , przedszkoli, szkoły językowe, szkoły tańca, biblioteka, place zabaw, Park Magiczny, pizzerie, multikino.&lt;/p&gt;&lt;p&gt;W bliskiej odległości są także tereny rekreacyjne, obiekty sportowe, &lt;/p&gt;&lt;p&gt;urzędy i placówki usługowe.&lt;/p&gt;&lt;p&gt;Lokalizacja:&lt;/p&gt;&lt;p&gt;Linie autobusowe przy osiedlu: 134, 234, 120 &lt;/p&gt;&lt;p&gt;Dojazd do metra Marymont - 15 minut&lt;/p&gt;&lt;p&gt;Dojazd do Trasy Toruńskiej - 10 minut&lt;/p&gt;&lt;p&gt;Dojazd do Mostu Północnego - 15 minut&lt;/p&gt;&lt;p&gt;Zalew Zegrzyński - 20 minut&lt;/p&gt;&lt;p&gt;Mieszkanie dostępne od zaraz.&lt;/p&gt;&lt;p&gt;Zapraszam do kontaktu oraz prezentację&lt;/p&gt;&lt;p&gt;7 dni w tygodniu w godz 8.00 - 21.00&lt;/p&gt;&lt;p&gt;Dominika Rosłon&lt;/p&gt;&lt;p&gt;&lt;span class="replacePhone"&gt;690 - 141 - 481&lt;/span&gt;&lt;/p&gt;&lt;p&gt;Ekspert ds. Nieruchomości &lt;/p&gt;&lt;p&gt;The Estate Warsaw &lt;/p&gt;&lt;p&gt;Oferta tylko i wyłącznie w biurze The Estate Warsaw&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;43 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2/2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Cegła&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2012&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;22.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-EC007966983333&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;234&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-aluzyjna-51m2-mzn2041813159</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                430 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=430000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            8 431 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;51 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/8
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Aluzyjna
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Fajne dwupokojowe
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Z NAMI KUPISZ BEZPIECZENIE &lt;/p&gt;&lt;p&gt;Dwupokojowe mieszkanie podzielone na dwie strefy dzienną i sypialnianą. &lt;/p&gt;&lt;p&gt;Mieszkanie wita nas przestronnym przedpokojem, w którym znajduje się garderoba, łazienka z toaletą. &lt;/p&gt;&lt;p&gt;Z wejścia z przedpokoju wchodzimy do części dziennej i sypialni o powierzchni 11,3 m2. &lt;/p&gt;&lt;p&gt;Część dzienna to połączona powierzchnia około 28 m2 , składająca się z  salonu, jadalni z wykuszem oraz widnej  kuchni.  &lt;/p&gt;&lt;p&gt;Z salonu wyjście na duży balkon o powierzchni 6 m2.&lt;/p&gt;&lt;p&gt;W cenie mieszkania pozostaje zabudowa kuchenna. Pozostałe meble do uzgodnienia. &lt;/p&gt;&lt;p&gt;Mieszkanie do odnowienia. Na podłogach w pokojach panele panele, w pozostałych pomieszczeniach terakota. &lt;/p&gt;&lt;p&gt;Łazienka pierwotnie była w jasnym kolorze, została przemalowana przez Najemcę na kolor szary. &lt;/p&gt;&lt;p&gt;Do mieszkania przynależy miejsce postojowe w garażu naziemnym. Cena miejsca postojowego 15.000,00 zł&lt;/p&gt;&lt;p&gt;Czynsz przy jednej osobie 580,00 zł. &lt;/p&gt;&lt;p&gt;Zapraszamy do oglądania &lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO REMONTU&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;51 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;260 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Z OKNEM&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WIEŻOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;RAMA H&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2004&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;20.03.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;30.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-291/5836/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1413&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-aluzyjna-44m2-mzn2042058415</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                460 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=460000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 314 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;44,60 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 2/8
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Aluzyjna
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Do sprzedania mieszkanie 2 pokoje Aluzyjna
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Do sprzedania mieszkanie 2 pokoje , kuchnia otwarta na salon, sypialnia, duża łazienka z wanną, przedpokój.&lt;/p&gt;&lt;p&gt;Salon z wyjściem na balkon.&lt;/p&gt;&lt;p&gt;Sypialnia z dużą szafą w zabudowie.&lt;/p&gt;&lt;p&gt;Łazienka z wanną, umywalką, pralką i wc.&lt;/p&gt;&lt;p&gt;W przedpokoju duża szafa wnękowa.&lt;/p&gt;&lt;p&gt;Na podłogach panele i terakota.&lt;/p&gt;&lt;p&gt;Mieszkanie na zamkniętym osiedlu, z ochroną .&lt;/p&gt;&lt;p&gt;Miejsca postojowe ogólnodostępne pod osiedlem.&lt;/p&gt;&lt;p&gt;Na osiedlu zawsze można znaleźć ofertę wynajmu, lub zakupu, miejsca postojowego w garażu podziemnym lub wielopoziomowym.&lt;/p&gt;&lt;p&gt;Cicha, zielona okolica. Blisko do Wisły. &lt;/p&gt;&lt;p&gt;Przystanek autobusowy pod budynkiem - autobus do metra Młociny.&lt;/p&gt;&lt;p&gt;W zasięgu spaceru sklepy, szkoły, przychodnie lekarskie, kilka restauracji.&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację.&lt;/p&gt;&lt;p&gt;Pomimo, iż Doradcy z Firmy Warszawski Pośrednik Nieruchomości Sp. z o.o. starają się uzyskiwać rzetelne informacje na temat oferowanych nieruchomości i przykładają do tego szczególną wagę, nie zawsze jednak są w stanie zweryfikować wszystkie otrzymane od osób trzecich informacje.&lt;/p&gt;&lt;p&gt;W związku z powyższym prezentacja oferty nie jest ofertą w rozumieniu Kodeksu Cywilnego i ma charakter wyłącznie informacyjny.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;44,60 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2/8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-06-01&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Pustak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2001&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;09.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;01.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-218901&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;455&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-piotra-wysockiego-48m2-mzn2042055071</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                445 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=445000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 271 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;3 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;48 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 10/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Piotra Wysockiego
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Mieszkanie do remontu z dużym potencjałem
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mieszkanie do remontu ale z dużym potencjałem.&lt;/p&gt;&lt;p&gt;Oferujemy do sprzedaży rozkładowe, trzypokojowe mieszkanie zlokalizowane na Warszawskim Targówku przy ul. Wysockiego.&lt;/p&gt;&lt;p&gt;IDEALNE DLA RODZINY LUB POD INWESTYCYJĘ&lt;/p&gt;&lt;p&gt;Nieruchomość o łącznej powierzchni 48 m2. W skład lokalu wchodzą: trzy pokoje, oddzielna kuchnia z oknem , łazienka oraz przedpokój. Z dużego pokoju jest wyjście na balkon skąd rozciąga się ładny widok całą Warszawę.&lt;/p&gt;&lt;p&gt;Mieszkanie do remontu.&lt;/p&gt;&lt;p&gt;Do mieszkania przynależy piwnica 1,5 m2.&lt;/p&gt;&lt;p&gt;Położenie nieruchomości gwarantuje prosty i krótki dojazd do głównych węzłów komunikacyjnych. W bezpośrednim sąsiedztwie znajdują się przystanki autobusowe, tramwajowe oraz niedaleko stacja metra.&lt;/p&gt;&lt;p&gt;Dodatkowo w najbliższej okolicy znajdują się liczne tereny zielone i rekreacyjne. Ponadto bardzo dobrze rozwinięta infrastruktura handlowo - usługowa. W bezpośrednim sąsiedztwie punkty usługowe i rozrywkowe, restauracje, kawiarnie, sklepy, apteka, urząd pocztowy, itp.&lt;/p&gt;&lt;p&gt;Zakup wyłącznie za gotówkę!&lt;/p&gt;&lt;p&gt;Zapraszam na prezentację&lt;/p&gt;&lt;p&gt;Opis nieruchomości sporządzany na podstawie informacji uzyskanych od właściciela/pełnomocnika/osoby reprezentującej może podlegać aktualizacji i nie stanowi oferty handlowej w rozumieniu Kodeksu Cywilnego lecz ma jedynie charakter informacyjny.&lt;/p&gt;&lt;p&gt;Staramy się, aby informacje dotyczące nieruchomości były możliwie dokładne, kompletne i aktualne. Ponieważ informacje te często pochodzą od osób trzecich i część z nich nie zawsze daje się zweryfikować, agencja WARSZAWSKIE NIERUCHOMOŚCI nie ponosi odpowiedzialności za ich dokładność.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;48 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1972&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-WN241652&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;362&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-marywilska-44m2-mzn2042193667</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                420 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=420000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 545 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;44 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 2/5
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Marywilska
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokoje w nowym bloku
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Prezentujemy Państwu atrakcyjną ofertę sprzedaży mieszkania o powierzchni 44 m2, usytuowanego przy ulicy Marywilskiej 67 w Warszawie. Ten dwupokojowy lokal, mimo potrzeby lekkiego odświeżenia, oferuje przestronne i funkcjonalne wnętrza. &lt;/p&gt;&lt;p&gt;Mieszkanie charakteryzuje się dobrą aranżacją pomieszczeń, co sprawia, że jest ono niezwykle ustawne. Pomimo swojej powierzchni, oferuje odpowiednią przestrzeń do codziennego funkcjonowania i komfortowego życia. Dodatkowo, na uwagę zasługuje fakt, że mieszkanie jest jasne i dobrze oświetlone, ze względu na ekspozycję okien na wschód.&lt;/p&gt;&lt;p&gt;Jednym z atutów tego mieszkania jest duży balkon, który stanowi idealne miejsce do relaksu i wypoczynku na świeżym powietrzu. To doskonałe miejsce, gdzie można cieszyć się poranną kawą lub przyjemnie spędzać letnie wieczory.&lt;/p&gt;&lt;p&gt;Do mieszkania przynależy również miejsce parkingowe, które jest dostępne dodatkowo za opłatą 30 000 zł. Ta wygoda zapewni Państwu bezpieczne i wygodne parkowanie pojazdu w pobliżu mieszkania.&lt;/p&gt;&lt;p&gt;Blok, w którym znajduje się mieszkanie, został wybudowany w 2013 roku, co oznacza, że jest on w doskonałym stanie technicznym. Całe osiedle wyróżnia się spokojem oraz zadbanym otoczeniem, co tworzy atmosferę harmonii i komfortu. Jest to idealne miejsce dla osób ceniących ciszę i spokój po intensywnym dniu.&lt;/p&gt;&lt;p&gt;Mieszkanie przy Marywilskiej 67 w Warszawie to doskonała propozycja dla osób poszukujących przestronnego i funkcjonalnego lokalu, który można dostosować do swoich indywidualnych potrzeb. Zapraszamy serdecznie do kontaktu, aby umówić się na prezentację i bliższe zapoznanie się z tą atrakcyjną nieruchomością.&lt;/p&gt;&lt;p&gt;Niezwłocznie skorzystajcie z tej okazji i zdobądźcie swoje wymarzone mieszkanie!&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO ODŚWIEŻENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;44 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2/5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;NISKI BLOK&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2013&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;06.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-154/14301/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;182&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;20&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-aleksandra-kaminskiego-39m2-mzn2041886911</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                410 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=410000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 441 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,27 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 3/3
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Aleksandra Kamińskiego
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        ✅Mieszkanie w dobrze skomunikowanej okolicy
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Na sprzedaż dwupokojowe mieszkanie o powierzchni 39.27 m2, zlokalizowane na trzecim piętrze trzypiętrowego bloku z 1998 roku.&lt;/p&gt;&lt;p&gt; &lt;/p&gt;&lt;p&gt;Mieszkanie składa się z przestronnego pokoju (17,8 m2), przedpokoju, łazienki oraz kuchni połączonej z niewielkim pokojem. Zarówno pokój dzienny, jak i kuchnia to widne pomieszczenia, o przestronnym rozkładzie. &lt;/p&gt;&lt;p&gt;Mieszkanie znajduje się na terenie zamkniętym i ogrodzonym, co gwarantuje poczucie komfortu i bezpieczeństwa. Okolica oferuje pełną infrastrukturę handlowo-usługową, szkoły, przedszkola oraz przychodnię lekarską. Dodatkowo w niedalekiej odległości od nieruchomości mieści się ośrodek sportu z basenem, co zapewnia wiele możliwości spędzania czasu wolnego. &lt;/p&gt;&lt;p&gt;Lokalizacja mieszkania jest bardzo dogodna pod względem komunikacyjnym. Dojazd do Metra Młociny zajmuje zaledwie 10 minut. W odległości kilku minut od budynku znajdują się przystanki autobusowe oraz tramwajowe, umożliwiające szybki dojazd do innych części miasta. &lt;/p&gt;&lt;p&gt;Jeżeli jesteś zainteresowany tą ofertą, zadzwoń do mnie!&lt;/p&gt;&lt;p&gt;Treść niniejszego ogłoszenia nie stanowi oferty handlowej w rozumieniu Kodeksu Cywilnego. Treść ma charakter informacyjny i zalecamy ich osobistą weryfikację.&lt;/p&gt;&lt;p&gt;Zgodnie z przepisami Ustawy z dnia 4 lutego 1994 r. o prawie autorskim i prawach pokrewnych (Dz.U. z 1994r. Nr 24, poz. 83, z późn. zm.). Kopiowanie treści oraz fotografii i planów bez pisemnej zgody autora stanowi naruszenie majątkowych praw autorskich oraz podstawę odpowiedzialności karnej przewidzianej przepisami art. 116 § 1-4 ww. ustawy.&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO REMONTU&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,27 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;273 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3/3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;ODDZIELNA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;SPÓŁDZIELCZE WŁASNOŚCIOWE&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;NISKI BLOK&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1998&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;03.04.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-36367/2517/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;451&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-targowek-krasnobrodzka-46m2-mzn2041993455</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                445 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=445000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            9 591 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;46,40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/10
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Targówek,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Krasnobrodzka
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Mieszkanie dwupokojowe w atrakcyjnej cenie
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Zamieszkaj na zielonym osiedlu na Warszawskim Bródnie&lt;/p&gt;&lt;p&gt;Główne atuty nieruchomości: • doskonała komunikacja z centrum• cicha i spokojna okolica• bliskość terenów zielonych&lt;/p&gt;&lt;p&gt;Nieruchomość złożona z: • salon 20 m.kw• pokój 10 m.kw• kuchnia zamykana z oknem 6 m.kw• łazienka 4 m.kw• przedpokój 6 m.kw&lt;/p&gt;&lt;p&gt;Typ ogrzewania: ogrzewanie miejskie. &lt;/p&gt;&lt;p&gt;Typ własności: własność. &lt;/p&gt;&lt;p&gt;Mam przyjemność zaprezentować Państwu mieszkanie dwupokojowe, które składa się z ; &lt;/p&gt;&lt;p&gt;Przestronnego salonu, zamkniętej kuchni z oknem , sypialni oraz łazienki.&lt;/p&gt;&lt;p&gt;Nieruchomość wymaga odświeżenia, idealnie nadaje się pod wynajem bądź mieszkanie na "start" &lt;/p&gt;&lt;p&gt;W okolicy rozwinięta pełna infrastruktura, sklepy, apteka &lt;/p&gt;&lt;p&gt;W odległości ok 500 m pętla autobusowa Bródno- Podgrodzie, 4 minuty autobusem do najbliższej stacji "Kondratowicza". W niespełna 20 min dojedziesz do Centrum. &lt;/p&gt;&lt;p&gt;Nieruchomość nie posiada księgi wieczystej, grunty nie są uregulowane. &lt;/p&gt;&lt;p&gt;Nie czekaj i umów się już dzisiaj na prezentację!&lt;/p&gt;&lt;p&gt;Więcej zdjęć i plan powierzchni na /PAZA115&lt;/p&gt;&lt;p&gt;ZADZWOŃ&lt;span class="replacePhone"&gt;:&lt;span class="replacePhone"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;/span&gt;&lt;span class="description-number" data-v-0283b221="" data-v-77a28b44="" data-v-ebb714cc=""&gt;&lt;span class="description-number__contact" data-v-ebb714cc=""&gt;
+        668
+    &lt;/span&gt; &lt;span class="description-number__show-me" data-v-ebb714cc=""&gt;
+        ... pokaż
+    &lt;/span&gt;&lt;/span&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;. Czekamy na telefon od Ciebie. &lt;p&gt;&lt;/p&gt;&lt;p&gt;---&lt;/p&gt;&lt;p&gt;Zakup lub najem nieruchomości przez Agencję Metrohouse to:• największy wybór na rynku• elastyczne podejście do Klienta• bezpieczeństwo transakcji• możliwość skorzystania z szerokiej oferty kredytów gotówkowych i hipotecznych• doświadczeni doradcy&lt;/p&gt;&lt;p&gt;Czy wiesz, że możemy przygotować dla Ciebie prezentację on-line nieruchomości? Skontaktuj się z naszym Agentem i zapytaj o szczegóły.&lt;/p&gt;&lt;p&gt;Pomimo, iż Doradcy Metrohouse przykładają szczególną staranność do rzetelnego prezentowania informacji o nieruchomości, nie zawsze jest możliwa weryfikacja wszystkich danych przekazanych od osób trzecich. Niniejsza prezentacja oferty nie jest ofertą w rozumieniu Kodeksu Cywilnego i ma charakter wyłącznie informacyjny.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Do remontu&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;46,40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;180 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Kuchnia zamykana z oknem&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wielka płyta&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1975&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Ogrzewanie miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25.04.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;01.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-PAZA115&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;159&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-ursus-herbu-oksza-39m2-mzn2042131272</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                450 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=450000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 427 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,38 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 3/8
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Ursus,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Herbu Oksza
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        39,4 m2 - 2 pok + garaż i kom. oddanie w listopad
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Z uwagi na dużą ilość zapytań mailowych zachęcam do kontaktu telefonicznego.&lt;/p&gt;&lt;p&gt;39,38 m2 - 2 pok + garaż i komórka o pow. 3,31 m2 - zakończenie budowy w listopadzie tego roku !&lt;/p&gt;&lt;p&gt;Sprzedaż na podstawie cesji umowy&lt;/p&gt;&lt;p&gt;Deweloper Robyg - "Mój Ursus"&lt;/p&gt;&lt;p&gt;Ursus ul. Herbu Oksza etap 6B&lt;/p&gt;&lt;p&gt;Atuty:&lt;/p&gt;&lt;p&gt;- szybki termin oddania&lt;/p&gt;&lt;p&gt;- bdb lokalizacja&lt;/p&gt;&lt;p&gt;- funkcjonalny rozkład&lt;/p&gt;&lt;p&gt;- zadaszona loggia &lt;/p&gt;&lt;p&gt;- miejsce parkingowe w garażu podziemnym i komórka lokatorska&lt;/p&gt;&lt;p&gt;3 z 8 pięter&lt;/p&gt;&lt;p&gt;Salon z aneksem kuchennym - 19,58 m2 &lt;/p&gt;&lt;p&gt;Sypialnia - 12,08 m2&lt;/p&gt;&lt;p&gt;Łazienka - 5,25 m2&lt;/p&gt;&lt;p&gt;hol - 2,47 m2&lt;/p&gt;&lt;p&gt;loggia - 4,63 m2&lt;/p&gt;&lt;p&gt;Do mieszkania przynależy:&lt;/p&gt;&lt;p&gt;- miejsce postojowe w garażu podziemnym na poziomie -2 w cenie 35 000 PLN &lt;/p&gt;&lt;p&gt;- komórka lokatorska w garażu podziemnym na poziomie -1 o pow. 3,31 m2 w cenie 10 000 PLN&lt;/p&gt;&lt;p&gt;Deweloper:&lt;/p&gt;&lt;p&gt;Robyg jest jednym z największych i najbardziej cenionych deweloperów w kraju, który od 20 lat realizuje projekty w największych miastach Polski. Projekty, które zrealizował cechuje wysoka jakość i niepowtarzalny design. Na swoje realizacje udziela 5 letniej rękojmi!!!&lt;/p&gt;&lt;p&gt;O Inwestycji&lt;/p&gt;&lt;p&gt;Inwestycja ROBYG Mój Ursus, przy ul. Posag 7 Panien, zlokalizowana jest w dobrze skomunikowanej okolicy w modernizowanej dzielnicy Warszawy - Ursusie. W ramach projektu powstanie łącznie około 2000 nowych mieszkań na sprzedaż o zróżnicowanych metrażach przeznaczonych zarówno dla singli, jak i rodzin z dziećmi. Do zamieszkania zachęcają liczne tereny zielone idealne do spacerów i rekreacji oraz doskonała komunikacja z innymi częściami Warszawy.&lt;/p&gt;&lt;p&gt;Największym atutem oferowanych na sprzedaż mieszkań w inwestycji Mój Ursus jest wysoki, najlepszy w okolicy standard. Budynki będą posiadały indywidualnie wykończone, eleganckie lobby wejściowe, zaś przestrzenie zewnętrzne wypełnią starannie zaprojektowane tereny zielone wraz z małą architekturą, oświetleniem i placami zabaw dla dzieci.&lt;/p&gt;&lt;p&gt;ROBYG w cenie mieszkania zapewnia Smart House, czyli technologię inteligentnego domu. Smart House ułatwia codzienne życie dzięki zdalnej kontroli nad urządzeniami domowymi. Technologia ta pozwala mieszkać w nowoczesnym stylu – za pomocą aplikacji mobilnej i połączenia z Internetem można sterować pracą m.in. oświetlenia, temperatury itp.&lt;/p&gt;&lt;p&gt;Zapraszam do kontaktu&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie nie stanowi oferty w rozumieniu Kodeksu Cywilnego, lecz ma charakter informacyjny.&lt;/p&gt;&lt;p&gt;Przedstawione wizualizacje i grafiki mają charakter wyłącznie poglądowy i stanowią wyłącznie materiał pomocniczy, ułatwiający zorientowanie się w ogólnym wyglądzie oferowanej nieruchomości.&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie wraz z jego elementami jest własnością  Północ Nieruchomości Sp z o.o.  lub podmiotu współpracującego. Wszelkie prawa zastrzeżone. Kopiowanie, rozpowszechnianie oraz korzystanie z niniejszych materiałów w jakikolwiek inny sposób wykraczający poza dozwolony użytek określony przepisami ustawy z 4 lutego 1994 r. o prawie autorskim i prawach pokrewnych (Dz. U. 1994, nr 24 poz. 83 z późn. zm.) bez pisemnej zgody Północ Nieruchomości Sp z o.o. lub podmiotów współpracujących jest zabronione i może stanowić podstawę odpowiedzialności cywilnej oraz karnej.&lt;/p&gt;&lt;p&gt;Niniejsze materiały stanowią tajemnicę przedsiębiorstwa PÓŁNOC NIERUCHOMOŚCI Sp. z o.o.  w rozumieniu ustawy z dnia 16 kwietnia 1993 r. o zwalczaniu nieuczciwej konkurencji (Dz. U. z 2003 r., Nr 153, poz. 1503 z późn. zm.).&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO WYKOŃCZENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,38 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;270 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3/8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;APARTAMENTOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-114956/3877/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;87&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-45m2-mzn2041749011</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
                 396 000 zł
@@ -491,26 +2007,73 @@
     &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;45 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3/5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
         Budynek
     &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Apartamentowiec&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Cegła&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
         Ogłoszenie
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;08.03.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;02.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-TPSW957174&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2411&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;08.03.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;02.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-TPSW957174&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2430&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-gioacchino-rossiniego-39m2-mzn2042130656</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                450 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=450000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 367 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,59 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 1/3
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Białołęka,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Gioacchino Rossiniego 7
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        2 pokoje na kameralnym osiedlu, 15 minut do metra
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Prezentuję Państwu położone w atrakyjnej lokalizacji mieszkanie na Białołęce - jest to jedna z najbardziej rozwijających się lokalizacji w Warszawie.&lt;/p&gt;&lt;p&gt;Nieruchomość w budynku z 2014r. gotowa do wprowadzenia się lub delikatnego dświeżenia.&lt;/p&gt;&lt;p&gt;Budynek bardzo dobrze ocieplony. Przy temperaturach ok 0°C w mieszkaniu utrzymuje się temperatura 19°C przy wyłączonym ogrzewaniu.&lt;/p&gt;&lt;p&gt;Mieszkanie łączy w sobie dwie bardzo ważne cechy.&lt;/p&gt;&lt;p&gt;Jest tu cicho, spokojnie, jest miejsce do spacerów, jazdy na rowerze, niestety rzadkość w dużych miastach.&lt;/p&gt;&lt;p&gt;Jednocześnie dojazd do centrum Warszawy nie zajmuje więcej niż 40 minut. ( niedaleko trasa S8, 100m do przystanku autobusowego, skąd w ok 15 minut dojedziemy do metra, samochodem 18km do centrum ).&lt;/p&gt;&lt;p&gt;W pobliżu cała potrzebna infrastruktura ( szkoła, przedkszola, skepy itp. )&lt;/p&gt;&lt;p&gt;Ogólnie osiedle bardzo ładne.&lt;/p&gt;&lt;p&gt;W cenie miejsce parkingowe naziemne które widać z balkonu ( zdjęcie nr 9 )&lt;/p&gt;&lt;p&gt;Mieszkanie na pierwszym piętrze z oknami usytuowanymi na wschód.&lt;/p&gt;&lt;p&gt;Czynsz ok 520 zł.&lt;/p&gt;&lt;p&gt;Polecam szczególnie dla osób, które cenią sobie ciszę i spokój, ale również jako inwestycja, lokata kapitału.&lt;/p&gt;&lt;p&gt;Na pobliskim Bródnie otwarto dwie nowe stacje metra co bardzo przyspieszyło komunikacje z centrum oraz podniosło atrakcyjność okolicy.&lt;/p&gt;&lt;p&gt;Mieszkanie najchętniej dostępne od 15.08.2023r., ale to jest kwestia " do dogadania ".&lt;/p&gt;&lt;p&gt;Serdecznie zapraszam do oglądania i zakochania się w tej lokalizacji i mieszkaniu!&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,59 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;265 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1/3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Aneks&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;łazienka razem z WC&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. balkonu&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;3 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Taras&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Nie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-08-16&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Cena do negocjacji&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rodzaj umowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Na wyłączność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Beton&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2014&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Bardzo dobry&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Gazowe&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;24.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;24.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-11&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;245&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-claudia-monteverdiego-39m2-mzn2042091913</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
                 395 000 zł
@@ -546,111 +2109,109 @@
     &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO WYKOŃCZENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,88 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;OTWARTA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;WŁASNOŚĆ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
         Budynek
     &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;APARTAMENTOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2022&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
         Ogłoszenie
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;16.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;10.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-49141/6624/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;552&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-erazma-z-zakroczymia-40m2-mzn2041391303</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
-                399 000 zł
-            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=399000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
-            Oblicz ratę
-        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
-            9 975 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;2 pokoje
-            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;40 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;parter/5
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;16.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;12.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-49141/6624/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;569&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-ursus-herbu-oksza-39m2-mzn2042131312</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                455 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=455000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            11 554 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;39,38 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;piętro 6/8
+            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
+                Ursus,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Herbu Oksza
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        39,4 m2 - 2 pok + garaż i kom. oddanie w listopad
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Z uwagi na dużą ilość zapytań mailowych zachęcam do kontaktu telefonicznego.&lt;/p&gt;&lt;p&gt;39,38 m2 - 2 pok + garaż i komórka o pow. 3,31 m2 - zakończenie budowy w listopadzie tego roku !&lt;/p&gt;&lt;p&gt;Sprzedaż na podstawie cesji umowy&lt;/p&gt;&lt;p&gt;Deweloper Robyg - "Mój Ursus"&lt;/p&gt;&lt;p&gt;Ursus ul. Herbu Oksza etap 6B&lt;/p&gt;&lt;p&gt;Atuty:&lt;/p&gt;&lt;p&gt;- szybki termin oddania&lt;/p&gt;&lt;p&gt;- bdb lokalizacja&lt;/p&gt;&lt;p&gt;- funkcjonalny rozkład i wysoka kondygnacja&lt;/p&gt;&lt;p&gt;- zadaszona loggia &lt;/p&gt;&lt;p&gt;- miejsce parkingowe w garażu podziemnym i komórka lokatorska&lt;/p&gt;&lt;p&gt;6 z 8 pięter&lt;/p&gt;&lt;p&gt;Salon z aneksem kuchennym - 19,58 m2 &lt;/p&gt;&lt;p&gt;Sypialnia - 12,08 m2&lt;/p&gt;&lt;p&gt;Łazienka - 5,25 m2&lt;/p&gt;&lt;p&gt;hol - 2,47 m2&lt;/p&gt;&lt;p&gt;loggia - 4,63 m2&lt;/p&gt;&lt;p&gt;Do mieszkania przynależy:&lt;/p&gt;&lt;p&gt;- miejsce postojowe w garażu podziemnym na poziomie -2 w cenie 35 000 PLN &lt;/p&gt;&lt;p&gt;- komórka lokatorska w garażu podziemnym na poziomie -1 o pow. 3,31 m2 w cenie 10 000 PLN&lt;/p&gt;&lt;p&gt;Deweloper:&lt;/p&gt;&lt;p&gt;Robyg jest jednym z największych i najbardziej cenionych deweloperów w kraju, który od 20 lat realizuje projekty w największych miastach Polski. Projekty, które zrealizował cechuje wysoka jakość i niepowtarzalny design. Na swoje realizacje udziela 5 letniej rękojmi!!!&lt;/p&gt;&lt;p&gt;O Inwestycji&lt;/p&gt;&lt;p&gt;Inwestycja ROBYG Mój Ursus, przy ul. Posag 7 Panien, zlokalizowana jest w dobrze skomunikowanej okolicy w modernizowanej dzielnicy Warszawy - Ursusie. W ramach projektu powstanie łącznie około 2000 nowych mieszkań na sprzedaż o zróżnicowanych metrażach przeznaczonych zarówno dla singli, jak i rodzin z dziećmi. Do zamieszkania zachęcają liczne tereny zielone idealne do spacerów i rekreacji oraz doskonała komunikacja z innymi częściami Warszawy.&lt;/p&gt;&lt;p&gt;Największym atutem oferowanych na sprzedaż mieszkań w inwestycji Mój Ursus jest wysoki, najlepszy w okolicy standard. Budynki będą posiadały indywidualnie wykończone, eleganckie lobby wejściowe, zaś przestrzenie zewnętrzne wypełnią starannie zaprojektowane tereny zielone wraz z małą architekturą, oświetleniem i placami zabaw dla dzieci.&lt;/p&gt;&lt;p&gt;ROBYG w cenie mieszkania zapewnia Smart House, czyli technologię inteligentnego domu. Smart House ułatwia codzienne życie dzięki zdalnej kontroli nad urządzeniami domowymi. Technologia ta pozwala mieszkać w nowoczesnym stylu – za pomocą aplikacji mobilnej i połączenia z Internetem można sterować pracą m.in. oświetlenia, temperatury itp.&lt;/p&gt;&lt;p&gt;Zapraszam do kontaktu&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie nie stanowi oferty w rozumieniu Kodeksu Cywilnego, lecz ma charakter informacyjny.&lt;/p&gt;&lt;p&gt;Przedstawione wizualizacje i grafiki mają charakter wyłącznie poglądowy i stanowią wyłącznie materiał pomocniczy, ułatwiający zorientowanie się w ogólnym wyglądzie oferowanej nieruchomości.&lt;/p&gt;&lt;p&gt;Niniejsze ogłoszenie wraz z jego elementami jest własnością  Północ Nieruchomości Sp z o.o.  lub podmiotu współpracującego. Wszelkie prawa zastrzeżone. Kopiowanie, rozpowszechnianie oraz korzystanie z niniejszych materiałów w jakikolwiek inny sposób wykraczający poza dozwolony użytek określony przepisami ustawy z 4 lutego 1994 r. o prawie autorskim i prawach pokrewnych (Dz. U. 1994, nr 24 poz. 83 z późn. zm.) bez pisemnej zgody Północ Nieruchomości Sp z o.o. lub podmiotów współpracujących jest zabronione i może stanowić podstawę odpowiedzialności cywilnej oraz karnej.&lt;/p&gt;&lt;p&gt;Niniejsze materiały stanowią tajemnicę przedsiębiorstwa PÓŁNOC NIERUCHOMOŚCI Sp. z o.o.  w rozumieniu ustawy z dnia 16 kwietnia 1993 r. o zwalczaniu nieuczciwej konkurencji (Dz. U. z 2003 r., Nr 153, poz. 1503 z późn. zm.).&lt;/p&gt;&lt;p&gt;Oferta wysłana z programu dla biur nieruchomości ASARI CRM (asaricrm.com)&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;DO WYKOŃCZENIA&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;39,38 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Wysokość wnętrza&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;270 cm&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;6/8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;8&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba łazienek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;APARTAMENTOWIEC&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;C.O. Z SIECI MIEJSKIEJ&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;25.05.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-114958/3877/OMS&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;120&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-bialoleka-43m2-mzn2042167158</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
+                450 000 zł
+            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=450000.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
+            Oblicz ratę
+        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
+            10 419 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;2 pokoje
+            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;43,19 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
+                    •
+                &lt;/span&gt;parter/2
             &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row location-row--with-map" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;div class="map-button-placeholder" data-v-2e1d2382=""&gt;&lt;button class="location-row__button" data-v-2e1d2382="" title="Zobacz na mapie"&gt;&lt;picture data-v-2e1d2382=""&gt;&lt;source data-v-2e1d2382="" srcset="/img/map/open-map.png 1x, /img/map/open-map@2x.png 2x, /img/map/open-map@3x.png 3x" type="image/png"/&gt; &lt;img alt="Mapa" class="location-row__img" data-v-2e1d2382="" height="72" src="/img/map/open-map.png" width="72"/&gt;&lt;/picture&gt;&lt;/button&gt;&lt;/div&gt; &lt;h2 class="location-row__header location-row__header--with-map" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
                 Warszawa,
             &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
                 Białołęka,
             &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
-                Białołęka Białołęka Dworska,
-            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
-                Erazma Z Zakroczymia
-            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
-        Parterowe 40 mkw - Białołęka
-    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Gdzie:&lt;/p&gt;&lt;p&gt;Białołęka, u. Erazma z Zakroczymia&lt;/p&gt;&lt;p&gt;Dla kogo:&lt;/p&gt;&lt;p&gt;- 1-3 osób ceniących mieszkanie w dobrze skomunikowanym punkcie i w cichym miejscu &lt;/p&gt;&lt;p&gt;- pod działalność gospodarczą  &lt;/p&gt;&lt;p&gt;- inwestycyjnie pod wynajem&lt;/p&gt;&lt;p&gt;Atuty:&lt;/p&gt;&lt;p&gt;Na sprzedaż  mieszkanie jednopokojowe z możliwością  wydzielenia drugiego pokoju o powierzchni 40 m2 z balkonem, na parterze w bloku z windą. &lt;/p&gt;&lt;p&gt;Aktualnie lokal przystosowany pod działalność gospodarczą typu gabinet lekarski, rehabilitacyjny lub działalność biurową.&lt;/p&gt;&lt;p&gt;W kilku słowach:&lt;/p&gt;&lt;p&gt;Mieszkanie parterowe z balkonem składa się z dużego pokoju 27m2 (możliwość wydzielenia drugiego pokoju), holu , 2 toalet i łazienki z kabina prysznicową. &lt;/p&gt;&lt;p&gt;Gotowe do wprowadzenia- nowe instalacje, okna, drzwi. Klatka po remoncie.&lt;/p&gt;&lt;p&gt;Mieszkanie przystosowane, zarejestrowane i spełniające wymogi do prowadzenia każdej działalności medycznej /gabinet lekarski, fizjoterapia, rehabilitacja /, biurowej itp.&lt;/p&gt;&lt;p&gt;Może być użytkowane nadal jako lokal usługowy, bądź jako lokal mieszkalny.&lt;/p&gt;&lt;p&gt;Lokalizacja i komunikacja:&lt;/p&gt;&lt;p&gt;Bardzo korzystna lokalizacja komunikacyjna - autobusy, tramwaj do metra.&lt;/p&gt;&lt;p&gt;Tuż obok Białołęcki Ośrodek Sportu i Rekreacji oraz szkoła. &lt;/p&gt;&lt;p&gt;Do lokalu przynależy miejsce parkingowe na parkingu zamkniętym oraz piwnica - dodatkowo płatne.&lt;/p&gt;&lt;p&gt;Czynsz administracyjny: 380 zł&lt;/p&gt;&lt;p&gt;Pełna własność&lt;/p&gt;&lt;p&gt;Cena do negocjacji&lt;/p&gt;&lt;p&gt;Zadzwoń, zapraszam na prezentację.&lt;/p&gt;&lt;p&gt;Treść niniejszego ogłoszenia nie stanowi oferty handlowej w rozumieniu Kodeksu Cywilnego. Treść ma charakter informacyjny i zalecamy ich osobistą weryfikację. Kontaktując się z biurem Klient wyraża zgodę na przetwarzanie danych osobowych zgodnie z przepisami ustawy z dnia 29 sierpnia 1997 roku o ochronie danych osobowych / Dz.U.Nr. 133 poz. 883/. Klientowi przysługuje prawo do wglądu do swoich danych osobowych i ich aktualizacji.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
-        • Czytaj dalej
-    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;40 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;5&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba poziomów mieszkania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Balkon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2022-12-14&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
-        Budynek
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok Mieszkalny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1990&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
-        Ogłoszenie
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;14.12.2022&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;05.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-126691&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;741&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.morizon.pl/oferta/sprzedaz-mieszkanie-warszawa-rembertow-pielgrzymow-42m2-mzn2041028766</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;div class="basic-info" data-v-81158f54="" data-v-a7dbd8ac=""&gt;&lt;div class="price-row" data-v-a7dbd8ac="" id="basic-info-price-row"&gt;&lt;div class="price-row__wrapper" data-v-a7dbd8ac=""&gt;&lt;span class="price-row__price" data-v-a7dbd8ac=""&gt;
-                399 900 zł
-            &lt;/span&gt; &lt;div class="button__wrapper" data-v-63347d06="" data-v-a7dbd8ac="" primary=""&gt;&lt;a class="button button--link button__primary--low-emphasis button--mini" data-v-63347d06="" href="https://www.lendi.pl/formularz/kredyty-hipoteczne?utm_data_grabber=form_before_installment_comparer&amp;amp;utm_form=heading_check_installment&amp;amp;utm_fp_partner_id=551&amp;amp;utm_fp_source_id=91&amp;amp;utm_interest=installment_calculation&amp;amp;utm_loan_category=Mortgage&amp;amp;utm_keyword=sprawdz_rate&amp;amp;utm_medium=offer_website&amp;amp;utm_source=morizon.pl&amp;amp;hypothecValue=399900.00&amp;amp;loanPurpose.what=Apartment&amp;amp;loanPurpose.market=SecondaryMarket&amp;amp;meeting_voivoidship=mazowieckie&amp;amp;meeting_city=Warszawa" rel="nofollow noreferrer noopener" target="_blank"&gt;&lt;!-- --&gt; &lt;span class="button__content heading-5" data-v-63347d06=""&gt;
-            Oblicz ratę
-        &lt;/span&gt; &lt;!-- --&gt; &lt;!-- --&gt;&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="details-row" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;
-            9 337 zł/m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;2 pokoje
-            &lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;42,83 m&lt;sup data-v-a7dbd8ac=""&gt;2&lt;/sup&gt;&lt;/span&gt;&lt;/span&gt; &lt;span class="details-row__item" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__text" data-v-a7dbd8ac=""&gt;&lt;span class="details-row__dot" data-v-a7dbd8ac=""&gt;
-                    •
-                &lt;/span&gt;parter/4
-            &lt;/span&gt;&lt;/span&gt;&lt;/div&gt; &lt;div class="basic-info__location location-row" data-v-2e1d2382="" data-v-a7dbd8ac=""&gt;&lt;!-- --&gt; &lt;h2 class="location-row__header" data-v-2e1d2382=""&gt;&lt;span data-v-2e1d2382=""&gt;
-                Warszawa,
-            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
-                Stary Rembertów,
-            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;
-                Warszawa,
-            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
-                Pielgrzymów 28
-            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
-        Mieszkanie 2 pokojowe bezpośrednio Warszawa Rembertów
-    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;Mieszkanie w centralnej części Rembertowa dobre pod wynajem(sąsiedztwo ASzW) jak i jest gotowe do zamieszkania.&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;Lokalizacja obok ulicy Chruściela. 8 minut pieszo od stacji kolejki SKM(linia S2 17 minut do centrum). 3 minuty od przystanku autobusowego jeżdżącego do centrum(linia 143)&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;Miejsca parkingowe bezpośrednio przed blokiem zawsze dostępne. Nie ma problemów z parkowaniem w okolicy.&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;Mieszkanie jest ogrzewane na prąd(woda i grzejniki). Roczne zużycie oscyluje w okolicach 3500 kWh. Za to jest bardzo niski czynsz 310 zl miesięcznie.&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;Oferta bezpośrednia(sprzedaje pierwszy właściciel mieszkania).&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;Pośrednikom dziękuje i proszę o nie dzwonienie.&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
-        • Czytaj dalej
-    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Stan nieruchomości&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Dobry&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;42,83 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;4&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ kuchni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Osobna&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;łazienka razem z WC&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Tak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Dostępne od&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023-04-30&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Forma własności&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Własność&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
-        Budynek
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Blok&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Pustak&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2003&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
-        Ogłoszenie
-    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;30.04.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;07.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-gratka-30326807&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;325&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+                Warszawa,
+            &lt;/span&gt;&lt;span data-v-2e1d2382=""&gt;&lt;span class="main-location" data-v-2e1d2382=""&gt;
+                Białołęka
+            &lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;&lt;/div&gt; &lt;div class="basic-info__description-container" data-v-a7dbd8ac=""&gt;&lt;div class="description" data-v-0283b221="" data-v-a7dbd8ac=""&gt;&lt;h3 class="description__title" data-v-0283b221=""&gt;
+        Dwupokojowe na Białołęce
+    &lt;/h3&gt; &lt;div class="description__content--hidden" data-v-0283b221=""&gt;&lt;span class="description-text" data-v-0283b221="" data-v-77a28b44=""&gt;&lt;p&gt;KTO: Agencja TP Real Estate Broker&lt;/p&gt;&lt;p&gt;TYP OFERTY: Mieszkanie na sprzedaż&lt;/p&gt;&lt;p&gt;CENA: 450 000 PLN&lt;/p&gt;&lt;p&gt;METRAŻ: 43,19 m2&lt;/p&gt;&lt;p&gt;PIĘTRO: 0/2&lt;/p&gt;&lt;p&gt;WINDA: tak&lt;/p&gt;&lt;p&gt;ILOŚĆ POKOI: 2&lt;/p&gt;&lt;p&gt;ROK BUD.: 2023&lt;/p&gt;&lt;p&gt;MAT. BUD.: cegła&lt;/p&gt;&lt;p&gt;RODZ. ZABUD.: apartamentowiec&lt;/p&gt;&lt;p&gt;GDZIE: Białołęka/ul. Ostródzka&lt;/p&gt;&lt;p&gt;TP Real Estate Broker prezentuje mieszkanie w nowej inwestycji  43,19 m2, 2 pokoje, wysoki parter z balkonem prawie 10m2,  południowa ekspozycja.&lt;/p&gt;&lt;p&gt;Rozkład mieszkania:&lt;/p&gt;&lt;p&gt;- pokój dzienny z aneksem kuchennym 20m2&lt;/p&gt;&lt;p&gt;- sypialnia 12,84 m2&lt;/p&gt;&lt;p&gt;- łazienka 4,43 m2&lt;/p&gt;&lt;p&gt;- korytarz 4,24 m2&lt;/p&gt;&lt;p&gt;- balkon 9,49 na całą szerokość mieszkania&lt;/p&gt;&lt;p&gt;Lokalizacja:&lt;/p&gt;&lt;p&gt;Kameralne osiedle położone na granicy dzielnic Białołęka i Targówek. Świetnie skomunikowane z centrum miasta a jednocześnie otoczone zielenią zaprasza by odpocząć od miejskiego gwaru. Doskonała propozycja dla osób szukających swojego pierwszego mieszkania, jak również dla rodzin.&lt;/p&gt;&lt;p&gt;Jeśli marzysz o byciu blisko natury i chcesz korzystać z atrakcji dużego miasta, to miejsce jest dla Ciebie.&lt;/p&gt;&lt;p&gt;• Świetna lokalizacja spokojna okolica w bezpośrednim sąsiedztwie terenów spacerowych,&lt;/p&gt;&lt;p&gt;• Podwyższony standard budynku,&lt;/p&gt;&lt;p&gt;• Dogodna komunikacja własnym samochodem lub komunikacją miejską,&lt;/p&gt;&lt;p&gt;• Edukacja: nowoczesne szkoły ze sportowym zapleczem, przedszkola, żłobki i przychodnie zdrowia,&lt;/p&gt;&lt;p&gt;• Zakupy - lokalne centra handlowe i wiele punktów usługowych,&lt;/p&gt;&lt;p&gt;• Usługi - przychodnie zdrowia, restauracje, kluby fitness wszystko w zasięgu krótkiego spaceru&lt;/p&gt;&lt;p&gt;• absolutnie nowe mieszkanie, które nie było wcześniej zamieszkane od renomowanego dewelopera wraz z 5-letnią rękojmią dewelopera &lt;/p&gt;&lt;p&gt;• Nowy, kameralny, zaledwie 2 piętrowy budynek o bardzo wysokim standardzie z pięknymi częściami wspólnymi!&lt;/p&gt;&lt;p&gt;Miejsce w garażu podziemnym dodatkowo płatne: 35 000 zł&lt;/p&gt;&lt;p&gt;Istnieje możliwość wykończenia mieszkania "pod klucz" przez polecaną firmę dodatkowo płatne. W załączeniu zdjęcia.&lt;/p&gt;&lt;p&gt;Posiadamy również inne mieszkania na Białołęce! &lt;/p&gt;&lt;p&gt;Zapraszam na prezentację!&lt;/p&gt;&lt;/span&gt;&lt;/div&gt; &lt;span class="description__read-more" data-v-0283b221=""&gt;
+        • Czytaj dalej
+    &lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>&lt;div class="detailed-information" data-v-612fd39b="" data-v-81158f54=""&gt;&lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;!-- --&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Pow. całkowita&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;43,19 m²&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Piętro&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Parter/2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba pięter&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba sypialni&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;1&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rynek&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Wtórny&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Budynek
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Typ budynku&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Apartamentowiec&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Materiał budowlany&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Cegła&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Rok budowy&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Ogrzewanie&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;Co Miejskie&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div data-v-31b4d9cd="" data-v-612fd39b=""&gt;&lt;h3 class="detailed-information-title" data-v-31b4d9cd=""&gt;
+        Ogłoszenie
+    &lt;/h3&gt; &lt;div class="detailed-information" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Data dodania&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;02.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Aktualizacja&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;02.06.2023&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Numer ogłoszenia&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;morizon-TPSW505902&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba odsłon&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;163&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="detailed-information__row" data-v-31b4d9cd=""&gt;&lt;div class="detailed-information__cell detailed-information__cell--label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Liczba Punktów Podbić&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value" data-v-31b4d9cd=""&gt;&lt;div data-v-31b4d9cd=""&gt;0&lt;/div&gt;&lt;/div&gt;&lt;/div&gt; &lt;div class="detailed-information__row" data-v-31b4d9cd="" style="display:none;"&gt;&lt;div class="detailed-information__cell detailed-information__cell--label detailed-information__cell--gam-label" data-v-31b4d9cd=""&gt;&lt;span data-v-31b4d9cd=""&gt;Kredyt&lt;/span&gt;&lt;/div&gt; &lt;div class="detailed-information__cell detailed-information__cell--value detailed-information__cell--gam-value" data-v-31b4d9cd=""&gt;&lt;div class="banner-txt" data-collapse="0" data-v-141d8090="" data-v-31b4d9cd="" id="slot-linktxt2"&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
